--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test3/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.032</v>
+        <v>-0.056</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.209</v>
+        <v>27.515</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>38.98536515197113</v>
+        <v>13.7136037871333</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>38.98553066820985</v>
+        <v>31.01928056936013</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>38.98544491761731</v>
+        <v>27.1651869242363</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>38.98164515568846</v>
+        <v>14.87163061702033</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>38.98166455501126</v>
+        <v>16.87290573589518</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>38.98175226759948</v>
+        <v>29.97072770127092</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>38.98517340712748</v>
+        <v>25.93396626023185</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.98509352283558</v>
+        <v>20.312425441733</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>38.9851154822053</v>
+        <v>28.23992302813163</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>38.97085863153993</v>
+        <v>22.06827648235564</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.97089879291798</v>
+        <v>24.50958967994485</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.97089616158931</v>
+        <v>24.94022670871497</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>38.96992273119063</v>
+        <v>18.33133620994203</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>38.97007128147054</v>
+        <v>28.04961579405862</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38.9700062375689</v>
+        <v>26.42332903153355</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>38.96724625263442</v>
+        <v>10.82712970983032</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>38.96741070973926</v>
+        <v>20.00822494086272</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>38.96741576662227</v>
+        <v>18.37521589310935</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>38.96163938825293</v>
+        <v>-11.21002925633539</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>38.96188025462535</v>
+        <v>6.072160276582345</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>38.96207104398517</v>
+        <v>13.41013372380678</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>38.96748738872181</v>
+        <v>9.029418227088843</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>38.96741940794366</v>
+        <v>5.323539228749233</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.98113604994128</v>
+        <v>-0.6508797604379595</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>38.98151196580883</v>
+        <v>35.64923812006307</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.98152262697835</v>
+        <v>34.20745198383261</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>38.97727089047292</v>
+        <v>16.63236872037872</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>38.97733073202473</v>
+        <v>24.73224558427782</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>38.97729935741764</v>
+        <v>22.64299302687346</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>38.98137252261314</v>
+        <v>35.48350360888505</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.98123576749363</v>
+        <v>20.32398947084696</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.98127610652469</v>
+        <v>25.6975970906471</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.96501155385602</v>
+        <v>35.02823782600684</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>38.96509051014756</v>
+        <v>40.08420613994488</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>38.96508057291421</v>
+        <v>40.03974435676096</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>38.96368649095243</v>
+        <v>26.67848623559897</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>38.96402088743257</v>
+        <v>41.77331733179227</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>38.9640165524882</v>
+        <v>41.34912073653786</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>38.96221395072637</v>
+        <v>-9.858413263853834</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.96338624363165</v>
+        <v>22.96836576398423</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.96337564360062</v>
+        <v>28.71087049519127</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>38.95886167804395</v>
+        <v>-17.04778832294033</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>38.95964793814017</v>
+        <v>6.921330339254169</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.95954974246621</v>
+        <v>5.671644976366721</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>38.96441304060997</v>
+        <v>13.74361812087302</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>38.9647072090022</v>
+        <v>7.197363945491301</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>38.98248060330151</v>
+        <v>-3.265859614246104</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>38.9828309296528</v>
+        <v>32.69881145515541</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38.98281876188125</v>
+        <v>31.97754302194995</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.97877259454896</v>
+        <v>17.14380798943358</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.97877776806392</v>
+        <v>24.33264221687821</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>38.97877972125669</v>
+        <v>26.34605508485621</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>38.98272495788402</v>
+        <v>36.59730682913066</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38.98254171030317</v>
+        <v>19.63105257808224</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.98259737523385</v>
+        <v>29.40375720369679</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38.96702155967077</v>
+        <v>34.34005756630837</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>38.96709498299452</v>
+        <v>38.81937725144891</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>38.96707659429994</v>
+        <v>39.8228012257271</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>38.96576859793488</v>
+        <v>23.87115052191715</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.96605746293204</v>
+        <v>38.11492225181129</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>38.96604297048913</v>
+        <v>39.30383493467271</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>38.96364778496977</v>
+        <v>-13.95527147189674</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.96462881603696</v>
+        <v>18.42710202515309</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>38.96473130713493</v>
+        <v>27.05051304962586</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>38.95982194111865</v>
+        <v>-21.19488983238857</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.96062413730936</v>
+        <v>5.414811252827235</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.96064841675941</v>
+        <v>7.105419151679751</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.96546684763009</v>
+        <v>10.76928485041766</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>38.96570084906729</v>
+        <v>3.830967425322847</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>38.99163428795887</v>
+        <v>0.3322897950229802</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>38.99178142050761</v>
+        <v>22.28513209838186</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>38.99177604533582</v>
+        <v>25.22119938364668</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>38.98905078194885</v>
+        <v>9.568569761134796</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>38.98909415140286</v>
+        <v>17.51687718066516</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>38.98911802239086</v>
+        <v>25.03449092495309</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>38.99172060576543</v>
+        <v>20.05965416519134</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.99167087177729</v>
+        <v>16.31761130828947</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.99171210991184</v>
+        <v>21.91486423728776</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.98085458825332</v>
+        <v>21.38120175102772</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>38.98089987667173</v>
+        <v>24.49453512218928</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.98089403260223</v>
+        <v>26.53291254167887</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>38.97998935653754</v>
+        <v>14.50574782144124</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>38.98014035419155</v>
+        <v>25.06295163359338</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>38.98013919263986</v>
+        <v>26.68938775272635</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>38.97648312367532</v>
+        <v>-3.040641916691399</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>38.97682276891614</v>
+        <v>18.27174029702887</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>38.97698364255088</v>
+        <v>27.35199834876126</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>38.97270066183592</v>
+        <v>-16.01874054561914</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>38.97313348161595</v>
+        <v>12.42070550754866</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.97321285018192</v>
+        <v>16.32837851354715</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>38.97713816853449</v>
+        <v>5.638680613485398</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.97717839034156</v>
+        <v>7.990055503926683</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.96756549518275</v>
+        <v>7.355240295970347</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>38.94476650547197</v>
+        <v>9.47227168084585</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>38.94489424619766</v>
+        <v>12.98626327146381</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>38.94489699166711</v>
+        <v>13.4179784244634</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>38.94301338572133</v>
+        <v>6.714326233428693</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>38.94321591810688</v>
+        <v>11.76392191917316</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>38.94320056798848</v>
+        <v>11.01552418976142</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.96101952118438</v>
+        <v>12.50078883223476</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>38.96117094231965</v>
+        <v>20.26565873724299</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.96128092049175</v>
+        <v>25.95280576938093</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>38.9547664084436</v>
+        <v>-11.70779166754626</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>38.95509509725014</v>
+        <v>9.262269559087876</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.95542955520972</v>
+        <v>20.47266470507591</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>38.9613558365733</v>
+        <v>14.22892436656686</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.96122521141361</v>
+        <v>12.12387303280658</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.96141139202241</v>
+        <v>12.6215221869828</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>38.93573894589893</v>
+        <v>14.29185849889861</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.93589683019235</v>
+        <v>18.23172804455205</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>38.93590583105279</v>
+        <v>19.7382077989574</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>38.93372060098684</v>
+        <v>11.21107809500554</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>38.93392939848638</v>
+        <v>14.6977294857115</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.93399773943739</v>
+        <v>16.950654972442</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>38.96487432883232</v>
+        <v>3.555010089014417</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>38.94266026885829</v>
+        <v>11.42085825861292</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>38.94290843234248</v>
+        <v>16.15500517749052</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>38.94287907030117</v>
+        <v>16.70628089068101</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>38.94048428148182</v>
+        <v>6.003337545235922</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>38.94103608306685</v>
+        <v>15.34991959397474</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>38.94097468571099</v>
+        <v>17.35167507703255</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.95499760493032</v>
+        <v>-13.19377281158587</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.95646388893773</v>
+        <v>34.43384452935773</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>38.95642088463806</v>
+        <v>34.4913089889089</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.95123818634445</v>
+        <v>-9.057599567752092</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.9520332935282</v>
+        <v>12.04617454301954</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.95205195273981</v>
+        <v>20.0321584596804</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>38.95786517347909</v>
+        <v>24.53180100745845</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>38.95807895979983</v>
+        <v>21.75965633139742</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>38.95809738430276</v>
+        <v>23.94474079263398</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>38.93323559871079</v>
+        <v>30.95942305810414</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>38.93351706329538</v>
+        <v>37.43695076082933</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>38.93349914593008</v>
+        <v>38.48793167592947</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>38.93056300395813</v>
+        <v>19.45242172735161</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>38.9313883900211</v>
+        <v>38.16531280858937</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>38.93137907725983</v>
+        <v>39.32472126006256</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38.96597569135537</v>
+        <v>3.395901130136807</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>38.94381551111449</v>
+        <v>6.967242583289519</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>38.94407282383914</v>
+        <v>11.67033194799322</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>38.94408330543529</v>
+        <v>13.60797388628023</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>38.9418089024734</v>
+        <v>2.190143500926929</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>38.94234911160203</v>
+        <v>10.70861128635594</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>38.94241885778345</v>
+        <v>15.20840083545272</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>38.95657629216452</v>
+        <v>-14.64847398325747</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>38.95787015624624</v>
+        <v>30.19711384428352</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.95788536321643</v>
+        <v>32.84828614464824</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>38.95247534291327</v>
+        <v>-11.27154683660795</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.95330781459615</v>
+        <v>10.02331569404938</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>38.95341485776746</v>
+        <v>20.64342230510715</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>38.95915698633271</v>
+        <v>24.78149064322871</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>38.95934709353756</v>
+        <v>19.84024781532712</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>38.95947876275174</v>
+        <v>23.5674351438925</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.93451487170607</v>
+        <v>28.9902492925582</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>38.93483341408968</v>
+        <v>34.98017373743733</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>38.93485833785864</v>
+        <v>36.91385497441598</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>38.93197675239673</v>
+        <v>18.24539884751257</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>38.93280633316789</v>
+        <v>34.3880982636495</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>38.93287046785896</v>
+        <v>37.44835219080363</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>38.97742409682281</v>
+        <v>13.98044934858372</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.95990404802141</v>
+        <v>7.417724061821186</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.96002844851787</v>
+        <v>12.04702029324121</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>38.9601070460417</v>
+        <v>15.0342364656151</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>38.95857370072158</v>
+        <v>5.45517103988464</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>38.95884214622927</v>
+        <v>13.72930873821289</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>38.9589597365368</v>
+        <v>19.37560805926124</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>38.97163854081125</v>
+        <v>1.903099372490921</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>38.97221045932893</v>
+        <v>27.46451791640543</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.97229625675873</v>
+        <v>38.57831125337751</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>38.96756825701459</v>
+        <v>-6.961917496973335</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.9681369829906</v>
+        <v>21.18095914706372</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>38.96819313926547</v>
+        <v>29.42247703943548</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>38.97256599109214</v>
+        <v>20.87545193765159</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>38.97275268692982</v>
+        <v>26.7123691218417</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.97283233448007</v>
+        <v>30.21337357303187</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>38.95357912433499</v>
+        <v>32.44534615839336</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>38.95376821839688</v>
+        <v>38.06081126668536</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>38.95380280355975</v>
+        <v>41.08988888175761</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.95190689033254</v>
+        <v>25.47142047734143</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>38.95235139246229</v>
+        <v>36.87486451627412</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>38.95240893695689</v>
+        <v>42.9780765157504</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>38.96735678375418</v>
+        <v>12.2791712709305</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>38.96768497448093</v>
+        <v>30.41056989262841</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>38.9675555961724</v>
+        <v>26.22505566847025</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>38.96143959536099</v>
+        <v>14.75799763570324</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>38.96155360579791</v>
+        <v>17.0281082102296</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>38.96170163274909</v>
+        <v>28.90101570423609</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>38.9671381323895</v>
+        <v>25.34184666729901</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>38.96709846429487</v>
+        <v>21.16426150429407</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>38.96713760542796</v>
+        <v>28.16270204690878</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>38.94399046874562</v>
+        <v>16.82014096408863</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>38.94408254296409</v>
+        <v>19.52137935210586</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>38.94407826271154</v>
+        <v>19.76106328249393</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>38.94239997882214</v>
+        <v>12.33402933033686</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>38.94271148052615</v>
+        <v>23.2124347953551</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>38.94260916721406</v>
+        <v>21.07030051813618</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>38.93704167112117</v>
+        <v>14.52342804584914</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>38.93733009763091</v>
+        <v>25.43851043113419</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>38.93735438560745</v>
+        <v>23.74230530285524</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>38.92763471570235</v>
+        <v>-1.724708072610717</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>38.9281185730536</v>
+        <v>17.42144113454642</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>38.92847542787793</v>
+        <v>23.3134425863117</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>38.93737799952368</v>
+        <v>17.99377595234219</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>38.93731373885605</v>
+        <v>14.96460724673592</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>38.95992186032264</v>
+        <v>1.033539260932343</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>38.96063142949078</v>
+        <v>34.57141208268081</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>38.96066102172303</v>
+        <v>32.94055689264629</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>38.95353713002647</v>
+        <v>14.38394009582279</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>38.95373140037552</v>
+        <v>20.47348536599399</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>38.953705521499</v>
+        <v>18.3219247175739</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.96033051855691</v>
+        <v>31.5100096805948</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>38.9601784094701</v>
+        <v>16.88965866867719</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>38.96028879980235</v>
+        <v>21.33190800020299</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.93353343023311</v>
+        <v>27.07383952239518</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.93370077366392</v>
+        <v>31.61733972854058</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>38.93370379589383</v>
+        <v>31.59890581434194</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>38.93136749016934</v>
+        <v>18.32206387604594</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.93194405188571</v>
+        <v>32.29401599285499</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.93198141475339</v>
+        <v>31.78619435905016</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>38.92823813508155</v>
+        <v>-2.375801788754991</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>38.93022012910997</v>
+        <v>29.09808133789088</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>38.93021410238595</v>
+        <v>32.32908276329844</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>38.92236039208171</v>
+        <v>-6.828139499016977</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>38.92379401858138</v>
+        <v>16.01506479680999</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>38.92361957288104</v>
+        <v>12.10340148606599</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>38.93184503889351</v>
+        <v>19.89730265850703</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>38.932389200962</v>
+        <v>13.5856536917598</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>38.96210632959824</v>
+        <v>-0.2229848745407281</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>38.96276654960392</v>
+        <v>33.05356025883604</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.96274358451978</v>
+        <v>32.45027709702973</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>38.95594497684296</v>
+        <v>15.34945311702415</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>38.95605125113832</v>
+        <v>20.65361164663007</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>38.95605730691376</v>
+        <v>22.8380222289683</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>38.96253128769496</v>
+        <v>33.8839631803684</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>38.9623038316219</v>
+        <v>17.10467282961682</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>38.96241125342102</v>
+        <v>26.36322362525866</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>38.93668163135857</v>
+        <v>27.02346184995756</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>38.93683103273102</v>
+        <v>30.93904568991086</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>38.93682028859221</v>
+        <v>32.08215088428208</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>38.93462355597492</v>
+        <v>16.39162001131692</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>38.93512838914693</v>
+        <v>29.21982871348349</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>38.93512452069941</v>
+        <v>30.51961470960427</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.9308140423821</v>
+        <v>-4.224557958551486</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>38.93243013482528</v>
+        <v>27.51074234608517</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38.93269251251578</v>
+        <v>32.87566261281589</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>38.92410514637482</v>
+        <v>-6.871864773888369</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>38.92551008431862</v>
+        <v>18.41104819562978</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>38.92560404392191</v>
+        <v>17.16793564808047</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>38.93369929280322</v>
+        <v>20.47497432047211</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>38.93410923719011</v>
+        <v>14.62210941021837</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>38.97749787899796</v>
+        <v>-0.5614346145698548</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>38.97780743218914</v>
+        <v>19.23478243410517</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>38.97779381932816</v>
+        <v>22.47702272222797</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>38.97327401709846</v>
+        <v>9.280012826045873</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>38.97343838595793</v>
+        <v>14.33659961220843</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>38.97344908630122</v>
+        <v>23.32664770017827</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>38.97766495398778</v>
+        <v>17.79115629162558</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.97767280375467</v>
+        <v>12.89790831609582</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>38.977720853572</v>
+        <v>18.45027067648402</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>38.95985356650229</v>
+        <v>15.92021592629825</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>38.95995390889382</v>
+        <v>18.4439890183774</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.95994901666432</v>
+        <v>20.56404647115667</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>38.95841340527403</v>
+        <v>9.101003900220384</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>38.95871758865611</v>
+        <v>18.5385830831273</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.95870088812574</v>
+        <v>20.2311430041815</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>38.95214219804473</v>
+        <v>5.354745168246154</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>38.95272665137074</v>
+        <v>26.66670816892801</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>38.95301438062639</v>
+        <v>33.03141280310924</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>38.94568197070086</v>
+        <v>-6.166957645923326</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>38.94650635880156</v>
+        <v>21.58587010342614</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>38.94662658889372</v>
+        <v>23.68447710926853</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>38.95317564805371</v>
+        <v>13.83498522685842</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>38.95330197987261</v>
+        <v>17.11252339120511</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>38.93756430949416</v>
+        <v>17.59342470469224</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>38.899494350828</v>
+        <v>20.26635226052311</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>38.89969764950541</v>
+        <v>23.98438246547695</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>38.89974918161169</v>
+        <v>24.27906288650361</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>38.8965193714588</v>
+        <v>16.72839679287129</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>38.89684986175477</v>
+        <v>23.40543779362133</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>38.89689089682934</v>
+        <v>22.34512147829978</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>38.92633021823522</v>
+        <v>16.73680881895558</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>38.92663750724523</v>
+        <v>26.42772991880493</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>38.92677907482049</v>
+        <v>32.29537690147117</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>38.91599165244018</v>
+        <v>-5.755187950230386</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>38.91668728257083</v>
+        <v>16.99705305180072</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>38.91716315987945</v>
+        <v>26.9065695346951</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>38.92696235592454</v>
+        <v>19.49009367982367</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>38.92685891284667</v>
+        <v>19.00670094280963</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>38.92706923727226</v>
+        <v>20.12327039860205</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>38.88427682382913</v>
+        <v>20.80264371935624</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>38.88454080483745</v>
+        <v>25.08928364209588</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>38.88457341728772</v>
+        <v>26.47397189226138</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>38.88089789766867</v>
+        <v>17.38540380861977</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>38.88125832843885</v>
+        <v>22.07531783634189</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>38.88134458619313</v>
+        <v>24.25537061351422</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>38.93258251904596</v>
+        <v>6.981196573555771</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.89539614486944</v>
+        <v>17.78220877461376</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>38.89580060931888</v>
+        <v>22.3423269381446</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>38.8957963255875</v>
+        <v>22.07399958372794</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>38.891720549214</v>
+        <v>12.76500362926457</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>38.89271078410081</v>
+        <v>22.07227945079966</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>38.89260308594231</v>
+        <v>22.18295371354212</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>38.91579952076599</v>
+        <v>-5.059837294070505</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.91832663895939</v>
+        <v>38.76990653990947</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>38.91822680802181</v>
+        <v>37.14923534746417</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>38.90866198424992</v>
+        <v>3.274462895063003</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>38.9100996244948</v>
+        <v>21.13243907594085</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.9101131602951</v>
+        <v>29.13495929283958</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>38.92017718522145</v>
+        <v>33.04475465881399</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>38.92065779253144</v>
+        <v>29.08789650863287</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>38.92064418633764</v>
+        <v>29.51645580986768</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>38.87779580978988</v>
+        <v>38.91123682691661</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>38.87828116259111</v>
+        <v>44.52445040194623</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>38.87828045874204</v>
+        <v>45.20668137109077</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>38.87328143152497</v>
+        <v>28.05004776235711</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>38.87479202929422</v>
+        <v>45.12464706572822</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>38.87473949735508</v>
+        <v>45.01562674520989</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>38.93456452165144</v>
+        <v>10.63181665165315</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>38.8975183720889</v>
+        <v>17.99523873818545</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>38.89792526687864</v>
+        <v>22.5910344014753</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>38.89801023105266</v>
+        <v>23.46284617271978</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>38.89416465064679</v>
+        <v>13.14547537036088</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.89505693924477</v>
+        <v>21.86954542359432</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.89524679727313</v>
+        <v>23.91996056387858</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>38.91842478582073</v>
+        <v>-6.438018982763836</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>38.92063152959899</v>
+        <v>36.59206989886803</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.9206267468057</v>
+        <v>35.74409442655399</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>38.91079765752946</v>
+        <v>3.255456728587703</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.91222989021441</v>
+        <v>22.87261699524991</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.91240063764141</v>
+        <v>31.88405343307928</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>38.92238553939786</v>
+        <v>34.46182568841731</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>38.92276479017875</v>
+        <v>30.34784485743288</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>38.92293493655324</v>
+        <v>30.73028635217203</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>38.88005423579008</v>
+        <v>40.15021911706526</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>38.88059732800437</v>
+        <v>45.81855019028144</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>38.88064435516836</v>
+        <v>46.74942603270813</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>38.87584372902106</v>
+        <v>29.69611432735633</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>38.87730007733175</v>
+        <v>45.36504759345023</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>38.87734516732972</v>
+        <v>45.87727345074772</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>38.95370044189927</v>
+        <v>22.18475101339559</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>38.92442264375244</v>
+        <v>15.71236624972486</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>38.92465507459732</v>
+        <v>20.57009461529841</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.92477539236849</v>
+        <v>22.60199980510143</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>38.92218329128079</v>
+        <v>13.3678150824468</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.92265583458265</v>
+        <v>22.19315464995447</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>38.92288993965522</v>
+        <v>26.16023459642432</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>38.94397918539462</v>
+        <v>9.325118653359549</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>38.94488324642064</v>
+        <v>34.29757996010369</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.94509643617841</v>
+        <v>42.34288235297703</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>38.93697462210372</v>
+        <v>4.990682656041216</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.937950710528</v>
+        <v>33.06695645639218</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.93809920269481</v>
+        <v>38.71196795017548</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>38.94538594130336</v>
+        <v>30.19739694944637</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>38.94571468160704</v>
+        <v>36.58929661541515</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>38.94589556502275</v>
+        <v>38.30812294601764</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>38.91362277221064</v>
+        <v>44.73102899112565</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>38.91394631519944</v>
+        <v>50.164578730976</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>38.91402872627792</v>
+        <v>52.09042269906301</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>38.91088471554242</v>
+        <v>37.73154717892456</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>38.91160876955175</v>
+        <v>48.93528669308049</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>38.91178685516084</v>
+        <v>53.14703993009175</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>38.97863339993335</v>
+        <v>13.31126876799345</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>38.97885701742732</v>
+        <v>28.33841690287753</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>38.97876073423023</v>
+        <v>24.60824808839073</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>38.97413701154204</v>
+        <v>14.74333751233767</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>38.97421296507872</v>
+        <v>16.82836587061236</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>38.97431912335139</v>
+        <v>26.41723467060206</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>38.97843901316005</v>
+        <v>23.45308023462758</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>38.97840074795724</v>
+        <v>20.20070179401556</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>38.97843048454074</v>
+        <v>25.67841210075764</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>38.96095830106851</v>
+        <v>16.11209368180684</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>38.96101927345691</v>
+        <v>18.38220478665923</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>38.9610168964404</v>
+        <v>18.49758154442052</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>38.95977864414964</v>
+        <v>12.50753081185117</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>38.95998561865248</v>
+        <v>21.650001565126</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>38.95991241920861</v>
+        <v>19.5971485699972</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>38.95579724810477</v>
+        <v>20.87546515377531</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.95600287725111</v>
+        <v>30.40222921495655</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>38.95601915944141</v>
+        <v>28.94517285475778</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>38.94863189748606</v>
+        <v>9.128069601332445</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>38.94897766993441</v>
+        <v>25.11400905302817</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>38.94923671171388</v>
+        <v>29.92722654443589</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>38.95597755624654</v>
+        <v>25.82454302667546</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.95594247191505</v>
+        <v>23.06322031416175</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>38.97304694440845</v>
+        <v>8.695268945196077</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>38.97353975826156</v>
+        <v>36.83492876882065</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>38.97355992381045</v>
+        <v>35.58726527308191</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>38.96816815692054</v>
+        <v>21.98382686732324</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>38.96829984266323</v>
+        <v>27.43459946519629</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.96827696325958</v>
+        <v>25.98359228705218</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>38.97329916691714</v>
+        <v>35.72921573369507</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.9731743985848</v>
+        <v>24.46478962238579</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.97325303570912</v>
+        <v>27.87499945705191</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>38.95302329678905</v>
+        <v>32.57990145760919</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>38.95313504898563</v>
+        <v>36.48526353558979</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>38.95313541310929</v>
+        <v>36.50661190056927</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>38.95143250019917</v>
+        <v>24.80542361216634</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>38.95182603689299</v>
+        <v>36.64770499620563</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>38.95184915520015</v>
+        <v>36.25267795003641</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>38.94912194836628</v>
+        <v>10.18990575131233</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>38.95053779627781</v>
+        <v>35.96230194037921</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>38.95053324942074</v>
+        <v>39.30312826137769</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>38.94445559210141</v>
+        <v>10.24115083419604</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>38.9455071329369</v>
+        <v>28.95815876244176</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>38.9453712110359</v>
+        <v>26.23413335767382</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>38.95293675087601</v>
+        <v>32.74012750436939</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>38.94935329183359</v>
+        <v>26.74455442622897</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>38.97463305552033</v>
+        <v>7.646127438147015</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>38.97516680269142</v>
+        <v>35.6886443856842</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>38.9751391408614</v>
+        <v>35.21684773052461</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>38.97006970945257</v>
+        <v>23.1190388426349</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>38.9699075275206</v>
+        <v>27.95462593567283</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>38.96991984194754</v>
+        <v>30.02870593034158</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>38.97495945821675</v>
+        <v>38.08737816710201</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>38.97460024432495</v>
+        <v>25.08315234376497</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>38.97427996953054</v>
+        <v>32.45093038217225</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.95533919426327</v>
+        <v>33.33590952503069</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>38.95540008254598</v>
+        <v>36.71754861552138</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>38.95532973027036</v>
+        <v>37.69729106965794</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>38.95393258908035</v>
+        <v>23.9566138059098</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>38.95416754376478</v>
+        <v>34.93269493346382</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>38.96493323860432</v>
+        <v>35.99682214248649</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>38.95180736953334</v>
+        <v>8.666239492800525</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>38.95298824085753</v>
+        <v>34.66398547515162</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>38.95565163156805</v>
+        <v>39.68425300305768</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.94692567117896</v>
+        <v>9.956383178048856</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>38.94773936845413</v>
+        <v>30.64312055022634</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>38.94775212392561</v>
+        <v>30.07265418601082</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>38.95410343713329</v>
+        <v>32.98199174966558</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>38.94821711724887</v>
+        <v>27.46314198092895</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>38.98634436949011</v>
+        <v>7.767738085944664</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>38.98656751987102</v>
+        <v>24.61743131788074</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>38.98675868148632</v>
+        <v>27.29172677093555</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>38.9831489952663</v>
+        <v>17.92821766586186</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>38.98317824661591</v>
+        <v>22.15425509716555</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>38.98319965080316</v>
+        <v>29.99130573778273</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>38.98644822827676</v>
+        <v>24.9291984891023</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>38.98637390618838</v>
+        <v>21.216304717021</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>38.98628894968632</v>
+        <v>25.8768466995577</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>38.9729519830301</v>
+        <v>23.87344958339844</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>38.97300485733495</v>
+        <v>25.99437277238257</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>38.97300031825436</v>
+        <v>27.80349883550964</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>38.97192890766266</v>
+        <v>17.77243746193539</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>38.97209772451176</v>
+        <v>25.87930608319176</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>38.9755225333533</v>
+        <v>27.28417170655236</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>38.96747943075506</v>
+        <v>13.8362038403055</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>38.96787804612494</v>
+        <v>31.16271760538352</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>38.96903053561439</v>
+        <v>36.49714178361231</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>38.96267856751687</v>
+        <v>6.713066783770927</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>38.9631841192198</v>
+        <v>29.38777082836048</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>38.96322551612892</v>
+        <v>31.19965376093466</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>38.96827689770937</v>
+        <v>23.26553551746247</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>38.96670884324843</v>
+        <v>25.44720742366191</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>38.95653961074324</v>
+        <v>25.2214771447634</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>38.92767713742182</v>
+        <v>27.20593213060199</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>38.92770791028988</v>
+        <v>30.27641539736849</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>38.92778321759613</v>
+        <v>30.51322709975723</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>38.92555606756206</v>
+        <v>23.99809515621203</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>38.92567080163701</v>
+        <v>29.77694546290657</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>38.92620563429468</v>
+        <v>28.80438844820188</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>38.94811050046017</v>
+        <v>24.64663514923092</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>38.94830273963899</v>
+        <v>33.4049032976459</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>38.94916714559243</v>
+        <v>38.3629829057856</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>38.94027757861538</v>
+        <v>7.022281883958307</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.940715968733</v>
+        <v>26.48710655867082</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>38.94112975035237</v>
+        <v>34.69914771413361</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>38.94850769161308</v>
+        <v>28.55644704634514</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>38.94835266435747</v>
+        <v>28.54565821283666</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.94849878803638</v>
+        <v>29.33082322600983</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>38.91619724043255</v>
+        <v>29.26716816240838</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>38.91627245252317</v>
+        <v>32.92261239687635</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.91630749466394</v>
+        <v>34.05925567348169</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>38.91381275118101</v>
+        <v>26.01791149100262</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>38.91394359821707</v>
+        <v>30.30283868959739</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>38.92019559474065</v>
+        <v>32.0857623815344</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>38.95377118226445</v>
+        <v>21.54951290057845</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>38.92484022465435</v>
+        <v>30.27998268318039</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>38.92499033511569</v>
+        <v>33.94706788940131</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.92515689785882</v>
+        <v>33.93034156637879</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>38.92237810694937</v>
+        <v>25.62498994964945</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>38.92271243818514</v>
+        <v>32.9639600954233</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>38.9218820688628</v>
+        <v>33.49583442822898</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.94080814557095</v>
+        <v>9.780579447345612</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>38.94267043561023</v>
+        <v>46.02851349265856</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.94573231122398</v>
+        <v>44.55817442358685</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>38.93580128746468</v>
+        <v>21.06885594679961</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>38.93642956740612</v>
+        <v>35.39269452196441</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>38.93641034730133</v>
+        <v>42.38803217735231</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>38.94415673208181</v>
+        <v>45.2792434472081</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>38.94416367994692</v>
+        <v>41.5093143074037</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>38.94404887315533</v>
+        <v>41.89663590685072</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>38.91148152574104</v>
+        <v>50.57666513092615</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>38.91171202264658</v>
+        <v>55.10696432867105</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>38.91186366299914</v>
+        <v>55.70580329325941</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>38.90848946854267</v>
+        <v>40.88271253421431</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>38.90918269598899</v>
+        <v>54.91892404226124</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>38.90111953901958</v>
+        <v>54.80924023898681</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>38.95468795967385</v>
+        <v>24.38460498585506</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>38.92628682104534</v>
+        <v>30.03119773631533</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>38.92641664445621</v>
+        <v>33.71448380384746</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>38.92655201703484</v>
+        <v>34.61087862633626</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>38.92398898006343</v>
+        <v>25.51023629730312</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>38.92425926227478</v>
+        <v>32.38774703363406</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>38.92460201412991</v>
+        <v>34.46121382662794</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>38.94262213996057</v>
+        <v>8.310039561000131</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>38.94427909681927</v>
+        <v>43.93923187129222</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.94705158262104</v>
+        <v>42.87826926274749</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>38.93723921573723</v>
+        <v>20.2404544908262</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>38.93787869452489</v>
+        <v>36.07855799705489</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>38.93799702354993</v>
+        <v>43.77072325992967</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>38.94564245580662</v>
+        <v>45.74341764395881</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>38.94558385202517</v>
+        <v>41.91722505904309</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>38.94537147838867</v>
+        <v>42.05054599306032</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>38.91321816475448</v>
+        <v>51.0256259160613</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>38.91343513262687</v>
+        <v>55.60861150857872</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>38.91357152493914</v>
+        <v>56.38544146324588</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>38.91035039185689</v>
+        <v>41.73299423877664</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>38.91099153736297</v>
+        <v>54.60609592205952</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>38.89985042464653</v>
+        <v>54.84906714640575</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>38.96833759205921</v>
+        <v>30.02324640849201</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>38.94642085175617</v>
+        <v>24.87739703355948</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.94651606715831</v>
+        <v>28.77413866104524</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.94656632929605</v>
+        <v>30.5060232691401</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>38.94481206673071</v>
+        <v>22.66403489866821</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.94496465553361</v>
+        <v>29.72401671443375</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>38.94634779752071</v>
+        <v>33.10791883157148</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>38.96152018606284</v>
+        <v>17.53972158306977</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.96214542428047</v>
+        <v>38.44821598723906</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.96374620250569</v>
+        <v>44.73718752022133</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>38.95641959893569</v>
+        <v>15.17996445255352</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.95701119158499</v>
+        <v>38.93203213970529</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>38.95707058339311</v>
+        <v>43.08738235412883</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>38.96260608774914</v>
+        <v>35.94043503003021</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.96273681199463</v>
+        <v>41.72859435563366</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>38.96297742335989</v>
+        <v>42.62809398460702</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>38.93837682490763</v>
+        <v>48.6525981962858</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>38.93853328971484</v>
+        <v>53.24486098152467</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>38.9385918843498</v>
+        <v>54.69972847498867</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>38.9364450281127</v>
+        <v>42.57129729124429</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>38.93677244634894</v>
+        <v>52.08739726956676</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>38.93156852963246</v>
+        <v>55.25176393022481</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>38.99149406133071</v>
+        <v>30.63662460082079</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>38.99161631856571</v>
+        <v>34.91312055423455</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>38.99143806316562</v>
+        <v>33.4415683543312</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>38.98863539477357</v>
+        <v>30.36789242705417</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>38.98859627330678</v>
+        <v>30.54234600389263</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>38.98871249957639</v>
+        <v>33.84268854697672</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>38.99138261409047</v>
+        <v>33.29538067542808</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>38.99127247119322</v>
+        <v>31.29682092482767</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>38.99123772933056</v>
+        <v>32.97253368182001</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>38.98020673634677</v>
+        <v>32.89767245860975</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>38.98022992890021</v>
+        <v>33.44888077392814</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>38.98022173333013</v>
+        <v>33.44454097712338</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>38.97946255891449</v>
+        <v>32.21334063321246</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>38.97956069562679</v>
+        <v>34.57576672235601</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>38.98233339798666</v>
+        <v>33.72135788188825</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>38.97730221256431</v>
+        <v>27.12974672236055</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>38.97742918668954</v>
+        <v>28.91828375760116</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>38.97789203586379</v>
+        <v>28.28909110700291</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>38.97303274902543</v>
+        <v>20.07369637429325</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>38.97316002586027</v>
+        <v>24.07196223623962</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>38.97332460349193</v>
+        <v>26.18424098079857</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>38.97754674436369</v>
+        <v>26.05874417212668</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>38.97917661923037</v>
+        <v>23.61565654951801</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>38.98846495936039</v>
+        <v>24.39489748010698</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>38.98874428750392</v>
+        <v>34.40784010936142</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>38.98887324876533</v>
+        <v>33.89454573575922</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>38.98560377324631</v>
+        <v>29.69343544784922</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>38.98553801930705</v>
+        <v>31.65785964608387</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>38.98551211550348</v>
+        <v>31.05684034057123</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>38.98872126146109</v>
+        <v>34.85439616078661</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>38.98854727064865</v>
+        <v>29.85499389070047</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>38.98835524837838</v>
+        <v>31.31982139925584</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>38.97610334635407</v>
+        <v>34.91160314904863</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>38.97614219252458</v>
+        <v>36.23160580419453</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>38.976146612416</v>
+        <v>36.21953072872365</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>38.97511394120777</v>
+        <v>33.06781308515711</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>38.97533057941776</v>
+        <v>36.92708337692618</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>38.98187421617328</v>
+        <v>36.72034711911321</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>38.97336779206243</v>
+        <v>17.5710761633831</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>38.97414074986139</v>
+        <v>25.55926528314444</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>38.97579703437663</v>
+        <v>27.98657122064738</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>38.97052833654011</v>
+        <v>12.16765573670009</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>38.97089720841515</v>
+        <v>17.6667815374411</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>38.97083948300663</v>
+        <v>18.06177893611592</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>38.97284304621845</v>
+        <v>22.12704007456697</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>38.97283260461534</v>
+        <v>18.32569232371446</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>38.98950029947734</v>
+        <v>24.4143603357136</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>38.98978963060374</v>
+        <v>34.34871924848603</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>38.98982422016724</v>
+        <v>33.92773082670526</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>38.98672889246409</v>
+        <v>30.85781663866761</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>38.98661221495489</v>
+        <v>32.56148782224211</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>38.98663671128526</v>
+        <v>32.9939358227551</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>38.98972154615424</v>
+        <v>36.2163301316974</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>38.98929671405322</v>
+        <v>30.67869056732983</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.98930082940051</v>
+        <v>33.30174947880828</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>38.97763503227894</v>
+        <v>36.33595719848864</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.97766280753464</v>
+        <v>37.47148715837032</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>38.97764949603543</v>
+        <v>37.73728622201924</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>38.97671059601698</v>
+        <v>33.90647572481437</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>38.98247666611908</v>
+        <v>37.56493438961112</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>38.98251895492249</v>
+        <v>37.75350138092426</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>38.97450859926554</v>
+        <v>16.82181724822668</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>38.9763415736915</v>
+        <v>24.475923301613</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>38.97649080889455</v>
+        <v>27.82230111869389</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>38.97128727200078</v>
+        <v>11.20373000083639</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>38.97167780238943</v>
+        <v>17.28545589846725</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>38.97168719886194</v>
+        <v>18.61957900026426</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>38.97273058537579</v>
+        <v>21.61528090442877</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>38.97275728408552</v>
+        <v>17.49545837679299</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>38.99650743903598</v>
+        <v>26.49968302138074</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>38.99670571847738</v>
+        <v>32.47615076995262</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>38.99670740878517</v>
+        <v>33.036882300913</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>38.99450196835203</v>
+        <v>28.06327830401293</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>38.99447725427003</v>
+        <v>29.65292388154739</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>38.99452680564781</v>
+        <v>31.75188308179349</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>38.99656317124902</v>
+        <v>31.39213082582589</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.99644230027192</v>
+        <v>29.63092272815669</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>38.99643198174012</v>
+        <v>30.91927046740727</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.98813390901697</v>
+        <v>31.6967315779578</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>38.98817425979686</v>
+        <v>32.38779269629443</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.98816978273956</v>
+        <v>32.94624889985414</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>38.98748134666082</v>
+        <v>30.31673483346875</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>38.98949972440445</v>
+        <v>32.91310144095853</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>38.98955526551926</v>
+        <v>33.17650150442913</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>38.98458224211325</v>
+        <v>22.05208266753431</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>38.98528415540529</v>
+        <v>26.71256690262309</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>38.9853754774023</v>
+        <v>29.54747826296384</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>38.98162532264747</v>
+        <v>16.88578109826883</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>38.98183769546686</v>
+        <v>23.60388175213768</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>38.98189707577482</v>
+        <v>25.01341373164107</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.98423069838302</v>
+        <v>23.43423103122785</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.98412516668522</v>
+        <v>22.25381429820521</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.97766196870774</v>
+        <v>24.1087562528062</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>38.95961295051558</v>
+        <v>23.83114655048756</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>38.95968326247217</v>
+        <v>24.52689751953754</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.95966110282727</v>
+        <v>24.61571523416583</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>38.95829548766773</v>
+        <v>23.59023845545023</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>38.95889521811067</v>
+        <v>24.31268325832268</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>38.95894346021932</v>
+        <v>24.00114840867118</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>38.97256313612668</v>
+        <v>28.94160170736408</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>38.97323657830719</v>
+        <v>30.6124524512735</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>38.97318914520629</v>
+        <v>32.13306868422363</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>38.96779235611164</v>
+        <v>21.76902611510935</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>38.96793382851282</v>
+        <v>27.19938902164225</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>38.96823361852945</v>
+        <v>30.31666801783672</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>38.97285824851324</v>
+        <v>29.56661350131591</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>38.97285128653123</v>
+        <v>28.12675281330305</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.97280543531906</v>
+        <v>27.81555413796517</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>38.95272623499753</v>
+        <v>27.34681650809012</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>38.95281507081616</v>
+        <v>28.24580208202681</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>38.95280403584616</v>
+        <v>28.62224744379392</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>38.95122643945518</v>
+        <v>26.84128426553763</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.95543768829478</v>
+        <v>27.32969138311074</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.95610165599508</v>
+        <v>27.82881405471078</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.97520501518153</v>
+        <v>17.79400115743594</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.95705428174553</v>
+        <v>16.9777118774978</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>38.95724770966612</v>
+        <v>17.90835521142774</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>38.95719786557542</v>
+        <v>18.31451209355889</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>38.9555546170433</v>
+        <v>16.25219285309581</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.95550278585514</v>
+        <v>17.69535883757257</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.95551578097551</v>
+        <v>18.79799226424571</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.96777396981761</v>
+        <v>18.98807405824569</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.97046456259955</v>
+        <v>31.74308057063289</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>38.97043733082569</v>
+        <v>32.11313688818584</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.96443460381595</v>
+        <v>16.84777822227502</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>38.96471832481132</v>
+        <v>21.53235477418712</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.96471810475911</v>
+        <v>24.48108355191317</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>38.96957676020277</v>
+        <v>27.52171862911147</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>38.969619096811</v>
+        <v>25.3434997174225</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.96958305458987</v>
+        <v>26.30230063641973</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>38.94910497584109</v>
+        <v>25.66583322775288</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>38.94931904201339</v>
+        <v>27.17145097230941</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>38.94928749860042</v>
+        <v>27.61744677527852</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>38.94729957461747</v>
+        <v>22.78567127199494</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>38.94342031553496</v>
+        <v>27.40134710227391</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.94398004072204</v>
+        <v>28.04580307645101</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>38.97598982386941</v>
+        <v>18.02057213990036</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.95806965734099</v>
+        <v>15.87739301743607</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.95820944470284</v>
+        <v>16.73370187275949</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.95818645372015</v>
+        <v>17.56196177612014</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>38.95643152681992</v>
+        <v>15.41700498581141</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.95700183760404</v>
+        <v>16.47527138884061</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>38.95701165371131</v>
+        <v>18.36720023594524</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.97078694745723</v>
+        <v>18.49115200272133</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.97118386634707</v>
+        <v>30.27213386303502</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.97117288302235</v>
+        <v>31.29847463540265</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>38.9647249280565</v>
+        <v>15.47317535481269</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>38.96526532163708</v>
+        <v>20.13770445156359</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.96531128746339</v>
+        <v>23.82722671983127</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>38.97119795105797</v>
+        <v>27.05695078072019</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>38.97070400329353</v>
+        <v>24.13553046910801</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>38.9706981076629</v>
+        <v>25.40898383732124</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>38.95045021828454</v>
+        <v>24.58226489280821</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>38.95056249950113</v>
+        <v>25.89415038418174</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>38.95056814664748</v>
+        <v>26.61486277479986</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>38.94286072717239</v>
+        <v>22.04611318215477</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>38.94300061730374</v>
+        <v>25.8081129427087</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.94287045319859</v>
+        <v>26.91023840048896</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.98509557780483</v>
+        <v>24.42918944145804</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>38.97141055962779</v>
+        <v>21.44156509631972</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>38.97145175983096</v>
+        <v>22.2943986388211</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>38.97148549815358</v>
+        <v>23.27063128502783</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>38.97082358250631</v>
+        <v>21.58511300816885</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>38.97112137613015</v>
+        <v>22.79231187202832</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.97117257053618</v>
+        <v>24.61759575991689</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>38.9817877769343</v>
+        <v>24.72444310353971</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.98188597386299</v>
+        <v>31.09478923447667</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.98193053470916</v>
+        <v>34.50514528475791</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>38.97725242529133</v>
+        <v>18.84346014553762</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>38.97763115747485</v>
+        <v>26.12054689334718</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.97767797135025</v>
+        <v>28.57834630647303</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>38.98197684186432</v>
+        <v>27.67961104125273</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>38.98176263296429</v>
+        <v>28.39781890754796</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>38.98171123430846</v>
+        <v>29.26746688852283</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>38.9663061586869</v>
+        <v>28.05873385790163</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>38.96638285740617</v>
+        <v>29.41063780360157</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>38.96639716443365</v>
+        <v>30.3212194596063</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>38.96222193452471</v>
+        <v>26.58252350298877</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>38.96219957448577</v>
+        <v>29.17627555371053</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>38.96220533850774</v>
+        <v>30.99517313918888</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>38.98869822590426</v>
+        <v>24.54083708242782</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>38.98869444341116</v>
+        <v>34.26128360977793</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>38.98865617212622</v>
+        <v>31.95108027643614</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>38.98541710194993</v>
+        <v>24.79538821122198</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>38.98542684781134</v>
+        <v>25.52397401543223</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>38.9854876039833</v>
+        <v>33.1095677489723</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>38.98842609262258</v>
+        <v>31.38611404831448</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>38.98829674737199</v>
+        <v>27.57112217235859</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>38.98833247643483</v>
+        <v>32.00320260546462</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.97583946990386</v>
+        <v>29.51694642564169</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>38.97586946928403</v>
+        <v>30.82682087487196</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.97587184891473</v>
+        <v>31.02631985765941</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>38.97709186937396</v>
+        <v>27.4998164402157</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.97728943734413</v>
+        <v>32.89691165681414</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.97729471735453</v>
+        <v>31.81828481907088</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>38.97193895236011</v>
+        <v>18.04234813601409</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.97186392776618</v>
+        <v>23.11161217267445</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.97191653670784</v>
+        <v>21.91810552325257</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>38.96654545818251</v>
+        <v>4.035073213830636</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>38.96667648707942</v>
+        <v>14.00950719771478</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>38.96881503930248</v>
+        <v>18.17114890212314</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>38.97349293740473</v>
+        <v>15.70130103087342</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>38.97343542004739</v>
+        <v>12.7817854269805</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>38.98565600691147</v>
+        <v>12.15414660891503</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>38.98564655986169</v>
+        <v>33.30656705086353</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.98568255214587</v>
+        <v>31.97625981842383</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>38.98185507138271</v>
+        <v>22.18465491497257</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.98191215377799</v>
+        <v>26.34177920421522</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>38.98190890810697</v>
+        <v>24.63449781623729</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>38.98554508063954</v>
+        <v>32.82562320632605</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>38.98526047453746</v>
+        <v>22.91053830978046</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.98526060106779</v>
+        <v>25.94068537553682</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>38.97135773803519</v>
+        <v>31.40118547332011</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>38.97141160814128</v>
+        <v>34.23641812913893</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>38.97140583999002</v>
+        <v>34.11956784825793</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.97429974920018</v>
+        <v>26.85823379069772</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.97469993064755</v>
+        <v>35.43838870843738</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.97462949834591</v>
+        <v>34.83761928766174</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>38.96735663870102</v>
+        <v>4.398914058240308</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>38.96752243352385</v>
+        <v>23.71735608586511</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>38.96765934450923</v>
+        <v>27.23735519469286</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.96178241908747</v>
+        <v>-1.538858036884989</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.96204820932601</v>
+        <v>12.60673829776091</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>38.9602032000151</v>
+        <v>12.00378799544339</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>38.96580426436436</v>
+        <v>16.7673766386065</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>38.96580513109667</v>
+        <v>12.70709266221016</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>38.98685285491816</v>
+        <v>11.02762452860926</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>38.98684766840366</v>
+        <v>31.87951307678341</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.9868733054797</v>
+        <v>31.01686155279033</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>38.98326604759387</v>
+        <v>23.04299627718717</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>38.9832988440348</v>
+        <v>26.5996301471217</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>38.98332335973436</v>
+        <v>27.26309069811816</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>38.98669804168192</v>
+        <v>34.07317848996288</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>38.98644158752293</v>
+        <v>22.92226482806653</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.9864367903568</v>
+        <v>28.56389704419026</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.97320376621438</v>
+        <v>31.49418348655215</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>38.9732521082039</v>
+        <v>33.95188319238748</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>38.97324503371548</v>
+        <v>34.45760759867956</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.97561023035158</v>
+        <v>25.7647159144688</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>38.9760073225211</v>
+        <v>33.7485689747474</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>38.9759248932455</v>
+        <v>34.12278352765279</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>38.96901018662322</v>
+        <v>2.238588245871703</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>38.9690938944592</v>
+        <v>21.07108198935665</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>38.96922673864619</v>
+        <v>26.4090492482275</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.96345592056351</v>
+        <v>-3.773961633964817</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>38.96375513138049</v>
+        <v>11.69759192715602</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>38.9608231532835</v>
+        <v>13.03703073864989</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>38.9664895923855</v>
+        <v>15.09335067133983</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.96650507919029</v>
+        <v>10.60835315472186</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>38.9943846319687</v>
+        <v>13.7591124729459</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>38.994363732556</v>
+        <v>26.22965075858593</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>38.99436166031733</v>
+        <v>27.68161903156436</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>38.991788829928</v>
+        <v>18.13046471140824</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>38.99179829365296</v>
+        <v>22.06984232595776</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>38.99183770417027</v>
+        <v>26.2029780207392</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.99424768071173</v>
+        <v>23.8534264772284</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.99414320839793</v>
+        <v>20.99394663061146</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>38.99413000702086</v>
+        <v>23.74978799766636</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>38.98460679706974</v>
+        <v>24.46241767937681</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.98463081660648</v>
+        <v>26.11592071238048</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>38.98463155860254</v>
+        <v>27.20446939276132</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>38.98485202261286</v>
+        <v>21.00784336768151</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.98505365133757</v>
+        <v>26.83195709592172</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>38.98504648602849</v>
+        <v>27.50225715238756</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>38.98058167156611</v>
+        <v>10.03855194730506</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>38.98055953791787</v>
+        <v>22.23089197245929</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>38.98063926533536</v>
+        <v>27.68944127528547</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>38.97641964425727</v>
+        <v>1.204501744345478</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>38.97658173696505</v>
+        <v>17.44456725080634</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>38.97600136798971</v>
+        <v>20.12589921382049</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>38.97997487518026</v>
+        <v>13.82980104276641</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>38.98001403419269</v>
+        <v>14.62002358929719</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>38.97174329118249</v>
+        <v>14.03465126340883</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>38.95112414171379</v>
+        <v>15.79046958612082</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.95116324870406</v>
+        <v>17.75262429316237</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>38.95115622574812</v>
+        <v>17.95404862892815</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>38.95008644732101</v>
+        <v>14.71847615262364</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>38.95032749213951</v>
+        <v>17.43378048148194</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>38.95036251887999</v>
+        <v>16.8579396211085</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>38.96666880787968</v>
+        <v>18.38873194438306</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.96658314004783</v>
+        <v>22.65845522132716</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>38.96663653950703</v>
+        <v>26.01188187933565</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>38.96044567377006</v>
+        <v>3.115109996666952</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>38.96061372527779</v>
+        <v>15.29088106009932</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.96079699520065</v>
+        <v>21.7736676369759</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>38.96652383246452</v>
+        <v>18.39308643390073</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>38.966305289353</v>
+        <v>16.6308669905288</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>38.9662690634277</v>
+        <v>16.75762591201411</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>38.94317981610923</v>
+        <v>17.92931460826409</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>38.94322753179134</v>
+        <v>20.1446543825467</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.94323016643909</v>
+        <v>21.00762549594298</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>38.94501985695609</v>
+        <v>16.69731641726133</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>38.94599586814011</v>
+        <v>18.46240564786204</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.94586818829457</v>
+        <v>19.72192503223387</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>38.96733016666185</v>
+        <v>10.56373228343146</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>38.94557454688079</v>
+        <v>13.87042108668865</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>38.94566273924742</v>
+        <v>16.64054034759184</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>38.94565735849753</v>
+        <v>16.95686901320105</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>38.9435488306499</v>
+        <v>10.96069559295446</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>38.94433006138126</v>
+        <v>16.4352560564022</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>38.94429536931585</v>
+        <v>17.6334438817651</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>38.96196604170304</v>
+        <v>3.129494592677858</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>38.96152703417843</v>
+        <v>31.20236737108599</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.96148929627815</v>
+        <v>31.57945732450938</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.95519979732131</v>
+        <v>3.729798859775165</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.95547998707521</v>
+        <v>15.77318631254276</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>38.95546165063901</v>
+        <v>21.15869684224139</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>38.96133188307025</v>
+        <v>24.08442255304451</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>38.96080916317211</v>
+        <v>22.18943498792292</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>38.96080980122325</v>
+        <v>23.64973808667833</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>38.93666453839429</v>
+        <v>26.76244762383266</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>38.93335008573408</v>
+        <v>30.5233324339931</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>38.93371788033904</v>
+        <v>31.26055369210974</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>38.93198872855164</v>
+        <v>20.14789021500108</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>38.93196134363738</v>
+        <v>31.10420250669183</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>38.93191539073318</v>
+        <v>32.07618210223657</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>38.96868136691132</v>
+        <v>10.53192017965651</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>38.94765737026991</v>
+        <v>11.51125241580613</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>38.9485011719655</v>
+        <v>14.19418863218717</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>38.94849657317287</v>
+        <v>15.39553146851932</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>38.94667013616728</v>
+        <v>9.046431118507758</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>38.94704926820722</v>
+        <v>13.85405441603731</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>38.94700066053696</v>
+        <v>16.6226445847501</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>38.96354455071679</v>
+        <v>2.485257813043191</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.96313526279158</v>
+        <v>28.79202070882236</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>38.96313779815831</v>
+        <v>30.64556884729114</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>38.95687031140783</v>
+        <v>1.798955576041628</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>38.95714732026408</v>
+        <v>14.03088653916677</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>38.95719811893322</v>
+        <v>20.94277128895081</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>38.96302551632661</v>
+        <v>23.65681594538236</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>38.9625233923489</v>
+        <v>20.53013509419868</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>38.96256971689975</v>
+        <v>22.81461308238492</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>38.93879000075545</v>
+        <v>24.98090689826107</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>38.93382009201959</v>
+        <v>28.43604846487177</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>38.93373750046634</v>
+        <v>29.69675902379506</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>38.93209950763156</v>
+        <v>18.91491438798447</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>38.93210653979651</v>
+        <v>28.32740525925082</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>38.93200290019153</v>
+        <v>30.30338072035854</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>38.98033372646774</v>
+        <v>18.5352883670495</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>38.96439216957744</v>
+        <v>13.68971133011556</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>38.96489958387183</v>
+        <v>16.29225185034037</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>38.96491977755666</v>
+        <v>18.12459994186016</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>38.96364682517344</v>
+        <v>12.87218914570404</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>38.96383131252705</v>
+        <v>17.43474814299176</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>38.96383029716536</v>
+        <v>20.87108618980655</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>38.97663502782412</v>
+        <v>13.09943154989845</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.97636546757688</v>
+        <v>27.55226264697369</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.97638829677355</v>
+        <v>34.54475358944362</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>38.97158713217533</v>
+        <v>5.265457848089298</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>38.97195587260666</v>
+        <v>21.28941931939277</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>38.97192406516498</v>
+        <v>26.73635385918551</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>38.97636814159183</v>
+        <v>22.02327041212857</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>38.9761539901253</v>
+        <v>24.77892325986189</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>38.97611711618926</v>
+        <v>27.22739804365229</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.95794968045308</v>
+        <v>26.72100710466464</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>38.95617463878775</v>
+        <v>29.86809993900798</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>38.95616635884386</v>
+        <v>31.78409609232074</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>38.95493143586984</v>
+        <v>23.01976555233354</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>38.95491956639076</v>
+        <v>29.30676136975222</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>38.9548949000095</v>
+        <v>33.15879448746173</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.192</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.642</v>
+        <v>22.244</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.056</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.515</v>
+        <v>20.833</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.418</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.916</v>
+        <v>20.768</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.7136037871333</v>
+        <v>-16.56785717521526</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31.01928056936013</v>
+        <v>20.9087910356648</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.1651869242363</v>
+        <v>28.48612698341791</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.87163061702033</v>
+        <v>-0.05769863744588477</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.87290573589518</v>
+        <v>10.68329402971578</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.97072770127092</v>
+        <v>15.85920989526521</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.93396626023185</v>
+        <v>12.26267682926622</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20.312425441733</v>
+        <v>16.05849106328837</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.23992302813163</v>
+        <v>19.91696422075055</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.06827648235564</v>
+        <v>24.09264803623368</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>24.50958967994485</v>
+        <v>31.0898766350114</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24.94022670871497</v>
+        <v>34.7890111939568</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18.33133620994203</v>
+        <v>9.096501807035605</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.04961579405862</v>
+        <v>25.96519479924988</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26.42332903153355</v>
+        <v>31.88600029715137</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.82712970983032</v>
+        <v>-11.94014298012674</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20.00822494086272</v>
+        <v>25.54090332307616</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>18.37521589310935</v>
+        <v>33.1196846487292</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-11.21002925633539</v>
+        <v>4.568515530646021</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6.072160276582345</v>
+        <v>15.31296725159363</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.41013372380678</v>
+        <v>20.48982332260645</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.029418227088843</v>
+        <v>16.89202992183736</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5.323539228749233</v>
+        <v>20.69037521121508</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.6508797604379595</v>
+        <v>-10.37974802513425</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35.64923812006307</v>
+        <v>27.0973759793565</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.20745198383261</v>
+        <v>34.67470396254787</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16.63236872037872</v>
+        <v>6.131216277096012</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.73224558427782</v>
+        <v>16.87249104792503</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.64299302687346</v>
+        <v>22.0483753562069</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>35.48350360888505</v>
+        <v>18.45185259115366</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20.32398947084696</v>
+        <v>22.24788616492416</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.6975970906471</v>
+        <v>26.10632803246385</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.02823782600684</v>
+        <v>30.28222982789593</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.08420613994488</v>
+        <v>37.27955161332299</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.03974435676096</v>
+        <v>40.97869016668567</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.67848623559897</v>
+        <v>15.28578457090093</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.77331733179227</v>
+        <v>32.15482047062703</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>41.34912073653786</v>
+        <v>38.07559885602215</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-9.858413263853834</v>
+        <v>-5.750980770038115</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>22.96836576398423</v>
+        <v>31.73054137191472</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.71087049519127</v>
+        <v>39.30931474305071</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-17.04778832294033</v>
+        <v>10.75848359916351</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6.921330339254169</v>
+        <v>21.50321745788601</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5.671644976366721</v>
+        <v>26.68004197839779</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>13.74361812087302</v>
+        <v>23.08225888502117</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.197363945491301</v>
+        <v>26.88082354032694</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-3.265859614246104</v>
+        <v>-6.914363746510237</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.69881145515541</v>
+        <v>30.56279455961582</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.97754302194995</v>
+        <v>38.14011116429542</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>17.14380798943358</v>
+        <v>9.596938348366432</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>24.33264221687821</v>
+        <v>20.33829711229673</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.34605508485621</v>
+        <v>25.51416767390269</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.59730682913066</v>
+        <v>21.91761832708725</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>19.63105257808224</v>
+        <v>25.71374082191157</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.40375720369679</v>
+        <v>29.57217438639195</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.34005756630837</v>
+        <v>33.74807540046145</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>38.81937725144891</v>
+        <v>40.74540527798494</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>39.8228012257271</v>
+        <v>44.44454240302518</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>23.87115052191715</v>
+        <v>18.75156153146217</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.11492225181129</v>
+        <v>35.62067745549511</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>39.30383493467271</v>
+        <v>41.54144416852471</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-13.95527147189674</v>
+        <v>-2.285120382172597</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>18.42710202515309</v>
+        <v>35.19643606250365</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>27.05051304962586</v>
+        <v>42.77519805467345</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-21.19488983238857</v>
+        <v>14.22468183085679</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5.414811252827235</v>
+        <v>24.96949968350945</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7.105419151679751</v>
+        <v>30.14631045815979</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>10.76928485041766</v>
+        <v>26.54850078420115</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3.830967425322847</v>
+        <v>30.34715436290677</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.3322897950229802</v>
+        <v>-13.28928989336199</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>22.28513209838186</v>
+        <v>24.18760206750543</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.22119938364668</v>
+        <v>31.76498818643101</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9.568569761134796</v>
+        <v>3.221377425070539</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>17.51687718066516</v>
+        <v>13.96255074926937</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.03449092495309</v>
+        <v>19.13850104034331</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20.05965416519134</v>
+        <v>15.54183254884746</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>16.31761130828947</v>
+        <v>19.33779468578159</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>21.91486423728776</v>
+        <v>23.1963006111312</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>21.38120175102772</v>
+        <v>27.37199339742225</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24.49453512218928</v>
+        <v>34.3692696830763</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>26.53291254167887</v>
+        <v>38.06843907781415</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>14.50574782144124</v>
+        <v>12.37568017858147</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.06295163359338</v>
+        <v>29.2445769546736</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>26.68938775272635</v>
+        <v>35.16542584529354</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-3.040641916691399</v>
+        <v>-8.661042185204071</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>18.27174029702887</v>
+        <v>28.82024789042684</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>27.35199834876126</v>
+        <v>36.39907939708921</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-16.01874054561914</v>
+        <v>7.848125160653165</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>12.42070550754866</v>
+        <v>18.59275755824198</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>16.32837851354715</v>
+        <v>23.76964806241089</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5.638680613485398</v>
+        <v>20.17171922608763</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>7.990055503926683</v>
+        <v>23.97021243425244</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>7.355240295970347</v>
+        <v>24.5495734237176</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>9.47227168084585</v>
+        <v>28.72612945022062</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>12.98626327146381</v>
+        <v>35.72512996120922</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>13.4179784244634</v>
+        <v>39.42492140071595</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.714326233428693</v>
+        <v>13.72849984525412</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>11.76392191917316</v>
+        <v>30.60088447409252</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>11.01552418976142</v>
+        <v>36.52280527488601</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>12.50078883223476</v>
+        <v>-2.038651683142877</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20.26565873724299</v>
+        <v>35.44253252442233</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25.95280576938093</v>
+        <v>43.02165108300782</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-11.70779166754626</v>
+        <v>14.47153173343615</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>9.262269559087876</v>
+        <v>25.21645625592286</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>20.47266470507591</v>
+        <v>30.39363399752669</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.22892436656686</v>
+        <v>26.79591901226176</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>12.12387303280658</v>
+        <v>30.59479391362644</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>12.6215221869828</v>
+        <v>34.45424033651584</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>14.29185849889861</v>
+        <v>38.632209660942</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>18.23172804455205</v>
+        <v>45.63142103050056</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>19.7382077989574</v>
+        <v>49.33130508601634</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>11.21107809500554</v>
+        <v>23.63403929460211</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>14.6977294857115</v>
+        <v>40.50687786456483</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>16.950654972442</v>
+        <v>46.42912438370256</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3.555010089014417</v>
+        <v>30.73999046879787</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>11.42085825861292</v>
+        <v>34.91676447292745</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>16.15500517749052</v>
+        <v>41.91585817978039</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.70628089068101</v>
+        <v>45.61565361815057</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6.003337545235922</v>
+        <v>19.91883582155519</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>15.34991959397474</v>
+        <v>36.79156339541559</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>17.35167507703255</v>
+        <v>42.71345709183178</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-13.19377281158587</v>
+        <v>4.150911934182698</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>34.43384452935773</v>
+        <v>41.63257197974524</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>34.4913089889089</v>
+        <v>49.21168257567346</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-9.057599567752092</v>
+        <v>20.66190124682741</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>12.04617454301954</v>
+        <v>31.40710790556242</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>20.0321584596804</v>
+        <v>36.58425409219744</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>24.53180100745845</v>
+        <v>32.98654942661646</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>21.75965633139742</v>
+        <v>36.78564369170958</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>23.94474079263398</v>
+        <v>40.64505882779581</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>30.95942305810414</v>
+        <v>44.82324613506516</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>37.43695076082933</v>
+        <v>51.82255070062517</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>38.48793167592947</v>
+        <v>55.5224387510704</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>19.45242172735161</v>
+        <v>29.82477672095017</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>38.16531280858937</v>
+        <v>46.69795823353085</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>39.32472126006256</v>
+        <v>52.62017764292231</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>3.395901130136807</v>
+        <v>34.20631298979576</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6.967242583289519</v>
+        <v>38.38308619355307</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>11.67033194799322</v>
+        <v>45.38218798850032</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.60797388628023</v>
+        <v>49.08198199894086</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2.190143500926929</v>
+        <v>23.38508893219925</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10.70861128635594</v>
+        <v>40.25789653190161</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>15.20840083545272</v>
+        <v>46.17977855669692</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-14.64847398325747</v>
+        <v>7.61693537249668</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>30.19711384428352</v>
+        <v>45.09862972056969</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.84828614464824</v>
+        <v>52.67772893254123</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-11.27154683660795</v>
+        <v>24.12826253473342</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>10.02331569404938</v>
+        <v>34.87355318566919</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>20.64342230510715</v>
+        <v>40.0506856227136</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>24.78149064322871</v>
+        <v>36.45295438402609</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>19.84024781532712</v>
+        <v>40.25213756983628</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.5674351438925</v>
+        <v>44.11154440219279</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.9902492925582</v>
+        <v>48.28973090454842</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>34.98017373743733</v>
+        <v>55.28904355738898</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>36.91385497441598</v>
+        <v>58.98893017825576</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18.24539884751257</v>
+        <v>33.29119287770747</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>34.3880982636495</v>
+        <v>50.16445441473586</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.44835219080363</v>
+        <v>56.08666214861425</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>13.98044934858372</v>
+        <v>27.8294434218515</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>7.417724061821186</v>
+        <v>32.00600839705935</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>12.04702029324121</v>
+        <v>39.00505659862624</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>15.0342364656151</v>
+        <v>42.70488287995765</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5.45517103988464</v>
+        <v>17.0082118031194</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>13.72930873821289</v>
+        <v>33.88080023699574</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>19.37560805926124</v>
+        <v>39.80276443943778</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1.903099372490921</v>
+        <v>1.240788534317215</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>27.46451791640543</v>
+        <v>38.72221651679563</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.57831125337751</v>
+        <v>46.30138524988574</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-6.961917496973335</v>
+        <v>17.75148080222122</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21.18095914706372</v>
+        <v>28.49658600333548</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.42247703943548</v>
+        <v>33.67379817388023</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>20.87545193765159</v>
+        <v>30.07594776565581</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.7123691218417</v>
+        <v>33.87497058681213</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>30.21337357303187</v>
+        <v>37.73444978233174</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>32.44534615839336</v>
+        <v>41.91242805583379</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>38.06081126668536</v>
+        <v>48.9116871168</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>41.08988888175761</v>
+        <v>52.61160601121075</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.47142047734143</v>
+        <v>26.91409069021851</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>36.87486451627412</v>
+        <v>43.7871330665278</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.9780765157504</v>
+        <v>49.70942298291213</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>12.2791712709305</v>
+        <v>-18.2488494786373</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.41056989262841</v>
+        <v>19.22589805179215</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.22505566847025</v>
+        <v>26.80321735078523</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>14.75799763570324</v>
+        <v>-1.739525764159641</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.0281082102296</v>
+        <v>9.000713348443167</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.90101570423609</v>
+        <v>14.17666691670562</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.34184666729901</v>
+        <v>10.58028955724232</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>21.16426150429407</v>
+        <v>14.37565820824492</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.16270204690878</v>
+        <v>18.23420345109245</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>16.82014096408863</v>
+        <v>22.40969113801149</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>19.52137935210586</v>
+        <v>29.40653219345522</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19.76106328249393</v>
+        <v>33.10567120334183</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>12.33402933033686</v>
+        <v>7.414555026615897</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.2124347953551</v>
+        <v>24.28220273625713</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.07030051813618</v>
+        <v>30.20305106579387</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>14.52342804584914</v>
+        <v>-13.62277081850035</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.43851043113419</v>
+        <v>23.85637459423507</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>23.74230530285524</v>
+        <v>31.43513930080023</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1.724708072610717</v>
+        <v>2.885052809897427</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17.42144113454642</v>
+        <v>13.6287508258196</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>23.3134425863117</v>
+        <v>18.80564464552894</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.99377595234219</v>
+        <v>15.20800687396142</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>14.96460724673592</v>
+        <v>19.00590646854475</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1.033539260932343</v>
+        <v>-12.06086499161991</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>34.57141208268081</v>
+        <v>25.41435831159997</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.94055689264629</v>
+        <v>32.99166965040324</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>14.38394009582279</v>
+        <v>4.449264462125864</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20.47348536599399</v>
+        <v>15.18978566519972</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>18.3219247175739</v>
+        <v>20.36570768072424</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>31.5100096805948</v>
+        <v>16.76934062509137</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>16.88965866867719</v>
+        <v>20.56492860426037</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>21.33190800020299</v>
+        <v>24.42344256152345</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.07383952239518</v>
+        <v>28.59914821911256</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>31.61733972854058</v>
+        <v>35.59608245689064</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>31.59890581434194</v>
+        <v>39.29522546264882</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>18.32206387604594</v>
+        <v>13.60371309169902</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.29401599285499</v>
+        <v>30.47170369293614</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>31.78619435905016</v>
+        <v>36.39252491454481</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-2.375801788754991</v>
+        <v>-7.433733307985182</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.09808133789088</v>
+        <v>30.04588792256576</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.32908276329844</v>
+        <v>37.62464467870306</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-6.828139499016977</v>
+        <v>9.074896153400271</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>16.01506479680999</v>
+        <v>19.81887629412999</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>12.10340148606599</v>
+        <v>24.99573856784836</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.89730265850703</v>
+        <v>21.39811110611974</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>13.5856536917598</v>
+        <v>25.19623005547843</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-0.2229848745407281</v>
+        <v>-8.595556350661429</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>33.05356025883604</v>
+        <v>28.87970125402493</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>32.45027709702973</v>
+        <v>36.45700121584018</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>15.34945311702415</v>
+        <v>7.914910886748128</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.65361164663007</v>
+        <v>18.65551608052003</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.8380222289683</v>
+        <v>23.83142435109418</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>33.8839631803684</v>
+        <v>20.23503071498139</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>17.10467282961682</v>
+        <v>24.03070761249846</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>26.36322362525866</v>
+        <v>27.88921326808115</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.02346184995756</v>
+        <v>32.06491814251403</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.93904568991086</v>
+        <v>39.06186047269243</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>32.08215088428208</v>
+        <v>42.76100205061327</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.39162001131692</v>
+        <v>17.06941440427617</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.21982871348349</v>
+        <v>33.93748502730709</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.51961470960427</v>
+        <v>39.85829457823301</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-4.224557958551486</v>
+        <v>-3.967948566625484</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.51074234608517</v>
+        <v>33.51170696681406</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.87566261281589</v>
+        <v>41.09045234574528</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-6.871864773888369</v>
+        <v>12.54101873049778</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>18.41104819562978</v>
+        <v>23.28508286258663</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>17.16793564808047</v>
+        <v>28.46193139219228</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>20.47497432047211</v>
+        <v>24.86427735097747</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>14.62210941021837</v>
+        <v>28.6624852206874</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-0.5614346145698548</v>
+        <v>-14.97034800170987</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.23478243410517</v>
+        <v>22.50464326918442</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.47702272222797</v>
+        <v>30.08201274119032</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>9.280012826045873</v>
+        <v>1.539484478442812</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>14.33659961220843</v>
+        <v>12.27990424060514</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.32664770017827</v>
+        <v>17.45589223691983</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>17.79115629162558</v>
+        <v>13.85937945597133</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>12.89790831609582</v>
+        <v>17.65489600324922</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>18.45027067648402</v>
+        <v>21.51347401595744</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>15.92021592629825</v>
+        <v>25.68897066952836</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>18.4439890183774</v>
+        <v>32.68585941012638</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>20.56404647115667</v>
+        <v>36.38503325626316</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.101003900220384</v>
+        <v>10.69366757477045</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18.5385830831273</v>
+        <v>27.56151905998813</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>20.2311430041815</v>
+        <v>33.48241078420033</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.354745168246154</v>
+        <v>-10.34373584573185</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.66670816892801</v>
+        <v>27.13565333033436</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.03141280310924</v>
+        <v>34.71446821960573</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-6.166957645923326</v>
+        <v>6.164596602627665</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.58587010342614</v>
+        <v>16.90847528787701</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>23.68447710926853</v>
+        <v>22.08540354326344</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.83498522685842</v>
+        <v>18.4876303398551</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>17.11252339120511</v>
+        <v>22.2856778469624</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>17.59342470469224</v>
+        <v>22.86517681767274</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.26635226052311</v>
+        <v>27.04153661799209</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.98438246547695</v>
+        <v>34.04014951952847</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.27906288650361</v>
+        <v>37.73994543122323</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>16.72839679287129</v>
+        <v>12.04491718923252</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.40543779362133</v>
+        <v>28.91625636838345</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.34512147829978</v>
+        <v>34.83822004962092</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>16.73680881895558</v>
+        <v>-3.721405775270075</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.42772991880493</v>
+        <v>33.75787754927141</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.29537690147117</v>
+        <v>41.33697945769875</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-5.755187950230386</v>
+        <v>12.78794272708505</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>16.99705305180072</v>
+        <v>23.53211353003682</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.9065695346951</v>
+        <v>28.70932899375866</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.49009367982367</v>
+        <v>25.11176963556788</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>19.00670094280963</v>
+        <v>28.91019882551897</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>20.12327039860205</v>
+        <v>32.76971736582156</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>20.80264371935624</v>
+        <v>36.94749041864627</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.08928364209588</v>
+        <v>43.94631416672523</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.47397189226138</v>
+        <v>47.6462026761224</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>17.38540380861977</v>
+        <v>21.95033022389286</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.07531783634189</v>
+        <v>38.8221233335551</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>24.25537061351422</v>
+        <v>44.74441270549782</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>6.981196573555771</v>
+        <v>29.05546912511435</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>17.78220877461376</v>
+        <v>33.23204689293657</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>22.3423269381446</v>
+        <v>40.23075298601559</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>22.07399958372794</v>
+        <v>43.93055289776264</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>12.76500362926457</v>
+        <v>18.23512842996699</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.07227945079966</v>
+        <v>35.10681053790647</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>22.18295371354212</v>
+        <v>41.0287471195832</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-5.059837294070505</v>
+        <v>2.46803313088007</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.76990653990947</v>
+        <v>39.9477922726375</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>37.14923534746417</v>
+        <v>47.52688622275939</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>3.274462895063003</v>
+        <v>18.97818750453488</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>21.13243907594085</v>
+        <v>29.72264043044826</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.13495929283958</v>
+        <v>34.89982434356027</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>33.04475465881399</v>
+        <v>31.30227530787822</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.08789650863287</v>
+        <v>35.1009238502251</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.51645580986768</v>
+        <v>38.96041110831577</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>38.91123682691661</v>
+        <v>43.13840213418898</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>44.52445040194623</v>
+        <v>50.13731907398044</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>45.20668137109077</v>
+        <v>53.83721157975656</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.05004776235711</v>
+        <v>28.14094290357199</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>45.12464706572822</v>
+        <v>45.01307893977518</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>45.01562674520989</v>
+        <v>50.93534120684903</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>10.63181665165315</v>
+        <v>32.52171599005048</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>17.99523873818545</v>
+        <v>36.69829295607569</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>22.5910344014753</v>
+        <v>43.69700713777642</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>23.46284617271978</v>
+        <v>47.39680562178823</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.14547537036088</v>
+        <v>21.70130588336592</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>21.86954542359432</v>
+        <v>38.57306801519933</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>23.91996056387858</v>
+        <v>44.49499292696412</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-6.438018982763836</v>
+        <v>5.933980914070201</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.59206989886803</v>
+        <v>43.41377435838199</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.74409442655399</v>
+        <v>50.99285692601568</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>3.255456728587703</v>
+        <v>22.44447312825723</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>22.87261699524991</v>
+        <v>33.18901004409933</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.88405343307928</v>
+        <v>38.36618020936412</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>34.46182568841731</v>
+        <v>34.76860460150344</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>30.34784485743288</v>
+        <v>38.56734206182766</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.73028635217203</v>
+        <v>42.42682101742894</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>40.15021911706526</v>
+        <v>46.60481123701099</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>45.81855019028144</v>
+        <v>53.6037362642525</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>46.74942603270813</v>
+        <v>57.3036273407145</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.69611432735633</v>
+        <v>31.60728339430038</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>45.36504759345023</v>
+        <v>48.47949945279133</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>45.87727345074772</v>
+        <v>54.40175004598136</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>22.18475101339559</v>
+        <v>26.14498097334824</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>15.71236624972486</v>
+        <v>30.32134971709699</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>20.57009461529841</v>
+        <v>37.32001030790302</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>22.60199980510143</v>
+        <v>41.01984106182356</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>13.3678150824468</v>
+        <v>15.32456330607219</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.19315464995447</v>
+        <v>32.19610628170635</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.16023459642432</v>
+        <v>38.11811336702026</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>9.325118653359549</v>
+        <v>-0.4420313934042106</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.29757996010369</v>
+        <v>37.03749569673577</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.34288235297703</v>
+        <v>44.61664778161905</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>4.990682656041216</v>
+        <v>16.06782594559119</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.06695645639218</v>
+        <v>26.81217741958646</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.71196795017548</v>
+        <v>31.98942731472907</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>30.19739694944637</v>
+        <v>28.39173253728078</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>36.58929661541515</v>
+        <v>32.19030964075436</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>38.30812294601764</v>
+        <v>36.04986095596057</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>44.73102899112565</v>
+        <v>40.22764295249617</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>50.164578730976</v>
+        <v>47.22651439077576</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>52.09042269906301</v>
+        <v>50.92643773958916</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>37.73154717892456</v>
+        <v>25.23031576523946</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>48.93528669308049</v>
+        <v>42.10231267303941</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>53.14703993009175</v>
+        <v>48.02464544445029</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>13.31126876799345</v>
+        <v>-16.76203471481115</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.33841690287753</v>
+        <v>20.71236641318505</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.60824808839073</v>
+        <v>28.28947801217525</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>14.74333751233767</v>
+        <v>-0.2532259800184029</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>16.82836587061236</v>
+        <v>10.48699102594712</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.41723467060206</v>
+        <v>15.66277799597701</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.45308023462758</v>
+        <v>12.0665117222009</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>20.20070179401556</v>
+        <v>15.8619320667057</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.67841210075764</v>
+        <v>19.72033264572182</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>16.11209368180684</v>
+        <v>23.89565388128214</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>18.38220478665923</v>
+        <v>30.89243323785449</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>18.49758154442052</v>
+        <v>34.59148564991669</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>12.50753081185117</v>
+        <v>8.900510815365163</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>21.650001565126</v>
+        <v>25.768067843595</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>19.5971485699972</v>
+        <v>31.68872758978231</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>20.87546515377531</v>
+        <v>-12.13547731010745</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.40222921495655</v>
+        <v>25.34332167479117</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.94517285475778</v>
+        <v>32.9218786527528</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>9.128069601332445</v>
+        <v>4.371831432498805</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.11400905302817</v>
+        <v>15.11550730330468</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.92722654443589</v>
+        <v>20.29223451700254</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.82454302667546</v>
+        <v>16.69470784511911</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.06322031416175</v>
+        <v>20.49265910535614</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>8.695268945196077</v>
+        <v>-10.57418557589218</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.83492876882065</v>
+        <v>26.90069132165597</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>35.58726527308191</v>
+        <v>34.47779495833645</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.98382686732324</v>
+        <v>5.935428882890772</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.43459946519629</v>
+        <v>16.6759279781949</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.98359228705218</v>
+        <v>21.85168339404815</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.72921573369507</v>
+        <v>18.25542742201518</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>24.46478962238579</v>
+        <v>22.05106709490762</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.87499945705191</v>
+        <v>25.90943638702485</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>32.57990145760919</v>
+        <v>30.08497558904177</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>36.48526353558979</v>
+        <v>37.08184812757627</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>36.50661190056927</v>
+        <v>40.78090453489726</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.80542361216634</v>
+        <v>15.08953351050381</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.64770499620563</v>
+        <v>31.95743342865527</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.25267795003641</v>
+        <v>37.87806606549991</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>10.18990575131233</v>
+        <v>-5.946575155218131</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>35.96230194037921</v>
+        <v>31.53269964449025</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>39.30312826137769</v>
+        <v>39.11124866994128</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>10.24115083419604</v>
+        <v>10.56153940530468</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.95815876244176</v>
+        <v>21.30549739960263</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.23413335767382</v>
+        <v>26.482193066232</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>32.74012750436939</v>
+        <v>22.88467670235711</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.74455442622897</v>
+        <v>26.68284731692351</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.646127438147015</v>
+        <v>-7.108953770795058</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>35.6886443856842</v>
+        <v>30.36595742746799</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.21684773052461</v>
+        <v>37.94304968711621</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>23.1190388426349</v>
+        <v>9.400998465749847</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.95462593567283</v>
+        <v>20.14158155096144</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.02870593034158</v>
+        <v>25.3173232215086</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>38.08737816710201</v>
+        <v>21.72104066878482</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.08315234376497</v>
+        <v>25.51676925875271</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>32.45093038217225</v>
+        <v>29.37513024887657</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>33.33590952503069</v>
+        <v>33.55066866815496</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>36.71754861552138</v>
+        <v>40.54754929895357</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>37.69729106965794</v>
+        <v>44.24660427812846</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.9566138059098</v>
+        <v>18.55515798085962</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>34.93269493346382</v>
+        <v>35.42313792010548</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.99682214248649</v>
+        <v>41.34375888585377</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>8.666239492800525</v>
+        <v>-2.480867257962888</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.66398547515162</v>
+        <v>34.99844184373983</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>39.68425300305768</v>
+        <v>42.57697949179935</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>9.956383178048856</v>
+        <v>14.02758513235032</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.64312055022634</v>
+        <v>24.77162711704333</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.07265418601082</v>
+        <v>29.94830903923166</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.98199174966558</v>
+        <v>26.35076609555999</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.46314198092895</v>
+        <v>30.14902562951958</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>7.767738085944664</v>
+        <v>-13.48361049300646</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>24.61743131788074</v>
+        <v>23.99103437203693</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.29172677093555</v>
+        <v>31.56819614246619</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>17.92821766586186</v>
+        <v>3.025706996666639</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.15425509716555</v>
+        <v>13.76610464997911</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.99130573778273</v>
+        <v>18.94192604586423</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.9291984891023</v>
+        <v>15.34552435362063</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>21.216304717021</v>
+        <v>19.1410925927626</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.8768466995577</v>
+        <v>22.99952593992297</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>23.87344958339844</v>
+        <v>27.17485614236049</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.99437277238257</v>
+        <v>34.1716831833633</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.80349883550964</v>
+        <v>37.87077043047888</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.77243746193539</v>
+        <v>12.1795460968738</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.87930608319176</v>
+        <v>29.04730689765828</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>27.28417170655236</v>
+        <v>34.96801003687214</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>13.8362038403055</v>
+        <v>-8.856519600094277</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.16271760538352</v>
+        <v>28.62252314463391</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>36.49714178361231</v>
+        <v>36.2011303038643</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.713066783770927</v>
+        <v>7.65129795222121</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.38777082836048</v>
+        <v>18.39515448978504</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.19965376093466</v>
+        <v>23.57191613722197</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>23.26553551746247</v>
+        <v>19.97425403676599</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.44720742366191</v>
+        <v>23.77235320711513</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.2214771447634</v>
+        <v>24.35178478241691</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.20593213060199</v>
+        <v>28.52797812531098</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.27641539736849</v>
+        <v>35.52652930068443</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.51322709975723</v>
+        <v>39.22623860426249</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>23.99809515621203</v>
+        <v>13.53135175666527</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.77694546290657</v>
+        <v>30.40260022076067</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.80438844820188</v>
+        <v>36.32437530307929</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>24.64663514923092</v>
+        <v>-2.234521284886416</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.4049032976459</v>
+        <v>35.24441561931967</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>38.3629829057856</v>
+        <v>42.8233097970264</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.022281883958307</v>
+        <v>14.27431230462961</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.48710655867082</v>
+        <v>25.01846097042577</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.69914771413361</v>
+        <v>30.19550981952402</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.55644704634514</v>
+        <v>26.59806155082883</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.54565821283666</v>
+        <v>30.3965424140329</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.33082322600983</v>
+        <v>34.25591627415683</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.26716816240838</v>
+        <v>38.43352284433233</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.92261239687635</v>
+        <v>45.4322848736695</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>34.05925567348169</v>
+        <v>49.13208677449204</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>26.01791149100262</v>
+        <v>23.43635572331634</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>30.30283868959739</v>
+        <v>40.30805812680914</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>32.0857623815344</v>
+        <v>46.23015889243838</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>21.54951290057845</v>
+        <v>30.54194171333146</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.27998268318039</v>
+        <v>34.71835302018091</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>33.94706788940131</v>
+        <v>41.7169973867755</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>33.93034156637879</v>
+        <v>45.41671068984708</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.62498994964945</v>
+        <v>19.721427620857</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>32.9639600954233</v>
+        <v>36.59301901182862</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>33.49583442822898</v>
+        <v>42.51476699304423</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>9.780579447345612</v>
+        <v>3.954782262237853</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>46.02851349265856</v>
+        <v>41.43419498017708</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>44.55817442358685</v>
+        <v>49.01308119727427</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>21.06885594679961</v>
+        <v>20.46442170683103</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.39269452196441</v>
+        <v>31.2088524949077</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>42.38803217735231</v>
+        <v>36.38586979223139</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>45.2792434472081</v>
+        <v>32.78843184380712</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>41.5093143074037</v>
+        <v>36.5871320592418</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>41.89663590685072</v>
+        <v>40.44647463589085</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>50.57666513092615</v>
+        <v>44.62429917533454</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>55.10696432867105</v>
+        <v>51.62315439625722</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>55.70580329325941</v>
+        <v>55.32296029270599</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>40.88271253421431</v>
+        <v>29.62683302179691</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>54.91892404226124</v>
+        <v>46.49887835028998</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>54.80924023898681</v>
+        <v>52.42095200936619</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>24.38460498585506</v>
+        <v>34.00811172528931</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>30.03119773631533</v>
+        <v>38.18452223067315</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>33.71448380384746</v>
+        <v>45.18317468554396</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.61087862633626</v>
+        <v>48.88288656056174</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.51023629730312</v>
+        <v>23.18752822406092</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>32.38774703363406</v>
+        <v>40.0591996380512</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>34.46121382662794</v>
+        <v>45.9809359489182</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>8.310039561000131</v>
+        <v>7.420653201778276</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>43.93923187129222</v>
+        <v>44.9001002219275</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>42.87826926274749</v>
+        <v>52.47897505647227</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>20.2404544908262</v>
+        <v>23.93063048228582</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.07855799705489</v>
+        <v>34.67514525892413</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.77072325992967</v>
+        <v>39.85214880814151</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>45.74341764395881</v>
+        <v>36.25468428736274</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>41.91722505904309</v>
+        <v>40.05347341967233</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>42.05054599306032</v>
+        <v>43.91280769342681</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>51.0256259160613</v>
+        <v>48.09063142665882</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>55.60861150857872</v>
+        <v>55.08949473485477</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>56.38544146324588</v>
+        <v>58.78929920174589</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>41.73299423877664</v>
+        <v>33.09309666384233</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>54.60609592205952</v>
+        <v>49.96522201350392</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>54.84906714640575</v>
+        <v>55.88728399832898</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.02324640849201</v>
+        <v>27.63151165982405</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.87739703355948</v>
+        <v>31.80771394738023</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.77413866104524</v>
+        <v>38.80631281114931</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>30.5060232691401</v>
+        <v>42.50605695580013</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>22.66403489866821</v>
+        <v>16.81092060026701</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.72401671443375</v>
+        <v>33.68237285771299</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.10791883157148</v>
+        <v>39.60419134202054</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.53972158306977</v>
+        <v>1.044775830585007</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.44821598723906</v>
+        <v>38.52395649680732</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>44.73718752022133</v>
+        <v>46.1029008492889</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>15.17996445255352</v>
+        <v>17.55411824575632</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.93203213970529</v>
+        <v>28.29844758031917</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>43.08738235412883</v>
+        <v>33.47553085884469</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>35.94043503003021</v>
+        <v>29.87794717375895</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.72859435563366</v>
+        <v>33.67657594832274</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>42.62809398460702</v>
+        <v>37.53598258170682</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.6525981962858</v>
+        <v>41.71359809675987</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>53.24486098152467</v>
+        <v>48.71240781537385</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>54.69972847498867</v>
+        <v>52.41224455446438</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>42.57129729124429</v>
+        <v>26.71626398684581</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>52.08739726956676</v>
+        <v>43.58817018541792</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>55.25176393022481</v>
+        <v>49.51031434854626</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>30.63662460082079</v>
+        <v>-13.27984922385265</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>34.91312055423455</v>
+        <v>24.19722062831526</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>33.4415683543312</v>
+        <v>31.77485128117091</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>30.36789242705417</v>
+        <v>3.230578200362896</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>30.54234600389263</v>
+        <v>13.97165216596344</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>33.84268854697672</v>
+        <v>19.14778621429836</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>33.29538067542808</v>
+        <v>15.55121937724395</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.29682092482767</v>
+        <v>19.34701186583372</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>32.97253368182001</v>
+        <v>23.2056651890462</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>32.89767245860975</v>
+        <v>27.38135241395905</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>33.44888077392814</v>
+        <v>34.37866401876572</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>33.44454097712338</v>
+        <v>38.07795365893519</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>32.21334063321246</v>
+        <v>12.38508235275405</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>34.57576672235601</v>
+        <v>29.25392126285389</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.72135788188825</v>
+        <v>35.17497766679644</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>27.12974672236055</v>
+        <v>-8.651635917952792</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.91828375760116</v>
+        <v>28.82983207224508</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.28909110700291</v>
+        <v>36.40890818385917</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>20.07369637429325</v>
+        <v>7.857291484987439</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>24.07196223623962</v>
+        <v>18.60182454414</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>26.18424098079857</v>
+        <v>23.7788988741659</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>26.05874417212668</v>
+        <v>20.18107162335575</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.61565654951801</v>
+        <v>23.97939519803758</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>24.39489748010698</v>
+        <v>-7.091539273665564</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>34.40784010936142</v>
+        <v>30.3860063802761</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.89454573575922</v>
+        <v>37.9636290698483</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.69343544784922</v>
+        <v>9.419693932596868</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>31.65785964608387</v>
+        <v>20.16105000738166</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>31.05684034057123</v>
+        <v>25.33715249851756</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>34.85439616078661</v>
+        <v>21.7405959646192</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.85499389070047</v>
+        <v>25.53660779702276</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.31982139925584</v>
+        <v>29.39522983023668</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.91160314904863</v>
+        <v>33.57113503802638</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.23160580419453</v>
+        <v>40.5685398316072</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.21953072872365</v>
+        <v>44.26783346678535</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>33.06781308515711</v>
+        <v>18.57456594365025</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.92708337692618</v>
+        <v>35.44374776723218</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.72034711911321</v>
+        <v>41.36477705913141</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>17.5710761633831</v>
+        <v>-2.462272881191854</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.55926528314444</v>
+        <v>35.01967095564343</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.98657122064738</v>
+        <v>42.59873911414836</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>12.16765573670009</v>
+        <v>14.04746039737567</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.6667815374411</v>
+        <v>24.7922755997187</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>18.06177893611592</v>
+        <v>29.96931837950187</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.12704007456697</v>
+        <v>26.37150143818296</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>18.32569232371446</v>
+        <v>30.17004438299675</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.4143603357136</v>
+        <v>-3.626066658835231</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>34.34871924848603</v>
+        <v>33.85151329802845</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>33.92773082670526</v>
+        <v>41.42912460950508</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.85781663866761</v>
+        <v>12.88550434749849</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.56148782224211</v>
+        <v>23.62694441743376</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>32.9939358227551</v>
+        <v>28.80303316199847</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.2163301316974</v>
+        <v>25.20645004651264</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.67869056732983</v>
+        <v>29.00255080183801</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.30174947880828</v>
+        <v>32.86116453229879</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.33595719848864</v>
+        <v>37.03706895742589</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.47148715837032</v>
+        <v>44.03448184322262</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>37.73728622201924</v>
+        <v>47.73377405006947</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.90647572481437</v>
+        <v>22.04043124909439</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>37.56493438961112</v>
+        <v>38.90969309903817</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>37.75350138092426</v>
+        <v>44.83071071873262</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>16.82181724822668</v>
+        <v>1.003675850679809</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.475923301613</v>
+        <v>38.48565399186161</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.82230111869389</v>
+        <v>46.0647107717122</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>11.20373000083639</v>
+        <v>17.51374698093825</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>17.28545589846725</v>
+        <v>28.25864617949018</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>18.61957900026426</v>
+        <v>33.43567521357174</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>21.61528090442877</v>
+        <v>29.83783169151154</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>17.49545837679299</v>
+        <v>33.63646356160284</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.49968302138074</v>
+        <v>-10.00116579618073</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>32.47615076995262</v>
+        <v>27.47614781056556</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>33.036882300913</v>
+        <v>35.05382863723268</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.06327830401293</v>
+        <v>6.509770419989461</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.65292388154739</v>
+        <v>17.25102504617045</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.75188308179349</v>
+        <v>22.42719352208216</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.39213082582589</v>
+        <v>18.83049125785287</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.63092272815669</v>
+        <v>22.62643165173578</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.91927046740727</v>
+        <v>26.4851177446523</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.6967315779578</v>
+        <v>30.66081393755989</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.38779269629443</v>
+        <v>37.65817323024434</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.94624889985414</v>
+        <v>41.35749770742409</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.31673483346875</v>
+        <v>15.66437688432954</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.91310144095853</v>
+        <v>32.53341958182402</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>33.17650150442913</v>
+        <v>38.45451938091541</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>22.05208266753431</v>
+        <v>-5.372418966233074</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.71256690262309</v>
+        <v>32.10929280096188</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.54747826296384</v>
+        <v>39.68841909638836</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.88578109826883</v>
+        <v>11.13701728245762</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>23.60388175213768</v>
+        <v>21.88173102184014</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.01341373164107</v>
+        <v>27.0588397873003</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.43423103122785</v>
+        <v>23.46087709895202</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.25381429820521</v>
+        <v>27.25934859534372</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>24.1087562528062</v>
+        <v>27.83877364402614</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.83114655048756</v>
+        <v>32.01533304392528</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.52689751953754</v>
+        <v>39.0144165882446</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.61571523416583</v>
+        <v>42.71436315164117</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>23.59023845545023</v>
+        <v>17.01757957736735</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>24.31268325832268</v>
+        <v>33.89011016622435</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.00114840867118</v>
+        <v>39.81228195601322</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.94160170736408</v>
+        <v>1.249384766001679</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.6124524512735</v>
+        <v>38.73099065650415</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>32.13306868422363</v>
+        <v>46.31040400535419</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.76902611510935</v>
+        <v>17.75983710299924</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>27.19938902164225</v>
+        <v>28.50484296243728</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>30.31666801783672</v>
+        <v>33.68223896640124</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.56661350131591</v>
+        <v>30.08449010515191</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.12675281330305</v>
+        <v>33.88334329482568</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>27.81555413796517</v>
+        <v>37.74296995365232</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.34681650809012</v>
+        <v>41.92094268875069</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.24580208202681</v>
+        <v>48.92023709254697</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.62224744379392</v>
+        <v>52.62027626801994</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>26.84128426553763</v>
+        <v>26.92264845566846</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>27.32969138311074</v>
+        <v>43.79563298509053</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>27.82881405471078</v>
+        <v>49.71813049667507</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>17.79400115743594</v>
+        <v>34.0293915453057</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>16.9777118774978</v>
+        <v>38.2061689254363</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.90835521142774</v>
+        <v>45.20534566753388</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>18.31451209355889</v>
+        <v>48.90529623017055</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>16.25219285309581</v>
+        <v>23.20811640698416</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>17.69535883757257</v>
+        <v>40.08098994660331</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>18.79799226424571</v>
+        <v>46.00313463257309</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.98807405824569</v>
+        <v>7.439149214617299</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.74308057063289</v>
+        <v>44.92123095122683</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.11313688818584</v>
+        <v>52.50063633880227</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>16.84777822227502</v>
+        <v>23.95040746551596</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>21.53235477418712</v>
+        <v>34.69569546632458</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>24.48108355191317</v>
+        <v>39.87305991525504</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>27.52171862911147</v>
+        <v>36.27532137585222</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>25.3434997174225</v>
+        <v>40.07439393313659</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>26.30230063641973</v>
+        <v>43.93398930521145</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>25.66583322775288</v>
+        <v>48.11218002668788</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.17145097230941</v>
+        <v>55.11156762805517</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>27.61744677527852</v>
+        <v>58.81161079897679</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>22.78567127199494</v>
+        <v>33.11358673990803</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>27.40134710227391</v>
+        <v>49.98691421817232</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.04580307645101</v>
+        <v>55.90938462028286</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>18.02057213990036</v>
+        <v>37.49580242229165</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>15.87739301743607</v>
+        <v>41.67257900125178</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>16.73370187275949</v>
+        <v>48.67176383191502</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>17.56196177612014</v>
+        <v>52.37171296641797</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>15.41700498581141</v>
+        <v>26.67445787076046</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>16.47527138884061</v>
+        <v>43.54741143847563</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>18.36720023594524</v>
+        <v>49.46954445304429</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>18.49115200272133</v>
+        <v>10.9052609992987</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.27213386303502</v>
+        <v>48.38737704031045</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>31.29847463540265</v>
+        <v>55.96677104407654</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>15.47317535481269</v>
+        <v>27.41685710764936</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>20.13770445156359</v>
+        <v>38.16222910286028</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>23.82722671983127</v>
+        <v>43.33957980247594</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.05695078072019</v>
+        <v>39.74181468972135</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>24.13553046910801</v>
+        <v>43.54097616944368</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>25.40898383732124</v>
+        <v>47.40056323791116</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.58226489280821</v>
+        <v>51.57875315323467</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.89415038418174</v>
+        <v>58.57814884245481</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.61486277479986</v>
+        <v>62.2781905836146</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>22.04611318215477</v>
+        <v>36.58009125233598</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.8081129427087</v>
+        <v>53.45349875685092</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.91023840048896</v>
+        <v>59.37595748396181</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.42918944145804</v>
+        <v>31.11875981857206</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>21.44156509631972</v>
+        <v>35.2953281640735</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>22.2943986388211</v>
+        <v>42.29445940036014</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>23.27063128502783</v>
+        <v>45.99444080651033</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>21.58511300816885</v>
+        <v>20.29740770646451</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>22.79231187202832</v>
+        <v>37.17014210362861</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>24.61759575991689</v>
+        <v>43.09235729760432</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>24.72444310353971</v>
+        <v>4.528941142265506</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.09478923447667</v>
+        <v>42.01079081252458</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>34.50514528475791</v>
+        <v>49.59025433866786</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>18.84346014553762</v>
+        <v>21.03990234183474</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.12054689334718</v>
+        <v>31.78508888295611</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.57834630647303</v>
+        <v>36.96251931803106</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>27.67961104125273</v>
+        <v>33.36463503171346</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.39781890754796</v>
+        <v>37.16363614368338</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.26746688852283</v>
+        <v>41.02329557712044</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.05873385790163</v>
+        <v>45.20127725847856</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.41063780360157</v>
+        <v>52.20061935484061</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.3212194596063</v>
+        <v>55.90069337049924</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>26.58252350298877</v>
+        <v>30.20281602402421</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.17627555371053</v>
+        <v>47.0760043636332</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>30.99517313918888</v>
+        <v>52.99854527480367</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.54083708242782</v>
+        <v>-12.32166784246177</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>34.26128360977793</v>
+        <v>25.15405055262753</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.95108027643614</v>
+        <v>32.73163444982133</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>24.79538821122198</v>
+        <v>4.188588962533384</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.52397401543223</v>
+        <v>14.92912561652308</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.1095677489723</v>
+        <v>20.10525922198262</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.38611404831448</v>
+        <v>16.50877886444577</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>27.57112217235859</v>
+        <v>20.3042523288863</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>32.00320260546462</v>
+        <v>24.16293283694203</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.51694642564169</v>
+        <v>28.33847386295944</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>30.82682087487196</v>
+        <v>35.33550445623318</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.02631985765941</v>
+        <v>39.03477742716613</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>27.4998164402157</v>
+        <v>13.34289494518911</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.89691165681414</v>
+        <v>30.21098964726324</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.81828481907088</v>
+        <v>36.13204469574639</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.04234813601409</v>
+        <v>-7.694604725487427</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.11161217267445</v>
+        <v>29.78551163267324</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>21.91810552325257</v>
+        <v>37.36454098570043</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>4.035073213830636</v>
+        <v>8.814152029646419</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>14.00950719771478</v>
+        <v>19.5581476539633</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>18.17114890212314</v>
+        <v>24.73522154258414</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>15.70130103087342</v>
+        <v>21.1374807514782</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>12.7817854269805</v>
+        <v>24.93548520802316</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>12.15414660891503</v>
+        <v>-6.133455326928317</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.30656705086353</v>
+        <v>31.34273885311817</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.97625981842383</v>
+        <v>38.92031479006816</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.18465491497257</v>
+        <v>10.37760724227466</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>26.34177920421522</v>
+        <v>21.11842599497929</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>24.63449781623729</v>
+        <v>26.29452804580607</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>32.82562320632605</v>
+        <v>22.69805799355576</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>22.91053830978046</v>
+        <v>26.49375079305916</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.94068537553682</v>
+        <v>30.35240001367951</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>31.40118547332011</v>
+        <v>34.5281590161931</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>34.23641812913893</v>
+        <v>41.52528279470532</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>34.11956784825793</v>
+        <v>45.22455976140445</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>26.85823379069772</v>
+        <v>19.53228107403019</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>35.43838870843738</v>
+        <v>36.40071867719932</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.83761928766174</v>
+        <v>42.32174661637013</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4.398914058240308</v>
+        <v>-1.505339159623151</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>23.71735608586511</v>
+        <v>35.97525302870615</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>27.23735519469286</v>
+        <v>43.55427443137789</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-1.538858036884989</v>
+        <v>15.00422345311283</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>12.60673829776091</v>
+        <v>25.74850121038234</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>12.00378799544339</v>
+        <v>30.92554355135864</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>16.7673766386065</v>
+        <v>27.3278130720261</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>12.70709266221016</v>
+        <v>31.12603689021777</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>11.02762452860926</v>
+        <v>-2.668049884642375</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.87951307678341</v>
+        <v>34.80817859815947</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.01686155279033</v>
+        <v>42.38574315774228</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>23.04299627718717</v>
+        <v>13.84335047570145</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.5996301471217</v>
+        <v>24.58425322192276</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>27.26309069811816</v>
+        <v>29.76034152693869</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>34.07317848996288</v>
+        <v>26.16384489452006</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>22.92226482806653</v>
+        <v>29.95962661483138</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.56389704419026</v>
+        <v>33.81826753326133</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>31.49418348655215</v>
+        <v>37.99402575251229</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>33.95188319238748</v>
+        <v>44.99115762378578</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.45760759867956</v>
+        <v>48.69043316242919</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.7647159144688</v>
+        <v>22.9980791975418</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.7485689747474</v>
+        <v>39.86659682529061</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.12278352765279</v>
+        <v>45.78761309306826</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>2.238588245871703</v>
+        <v>1.960542390116682</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>21.07108198935665</v>
+        <v>39.44116888276476</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>26.4090492482275</v>
+        <v>47.02017890746031</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-3.773961633964817</v>
+        <v>18.47044284637392</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>11.69759192715602</v>
+        <v>29.21480459761601</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>13.03703073864989</v>
+        <v>34.39183319360647</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>15.09335067133983</v>
+        <v>30.79407613485357</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>10.60835315472186</v>
+        <v>34.59238887595397</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>13.7591124729459</v>
+        <v>-9.043028711589802</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.22965075858593</v>
+        <v>28.43293343128031</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.68161903156436</v>
+        <v>36.0105675023829</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>18.13046471140824</v>
+        <v>7.467736873496772</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>22.06984232595776</v>
+        <v>18.20845418290507</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>26.2029780207392</v>
+        <v>23.38462221665479</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>23.8534264772284</v>
+        <v>19.78800643544586</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>20.99394663061146</v>
+        <v>23.58362780125143</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>23.74978799766636</v>
+        <v>27.44234107929348</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>24.46241767937681</v>
+        <v>31.61789107069323</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.11592071238048</v>
+        <v>38.61496935105826</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>27.20446939276132</v>
+        <v>42.31427715883653</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>21.00784336768151</v>
+        <v>16.62214516530359</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>26.83195709592172</v>
+        <v>33.49044364914043</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.50225715238756</v>
+        <v>39.41154209295398</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>10.03855194730506</v>
+        <v>-4.415432087536335</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>22.23089197245929</v>
+        <v>33.06492804099064</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.68944127528547</v>
+        <v>40.64400757787284</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>1.204501744345478</v>
+        <v>12.09383350191142</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>17.44456725080634</v>
+        <v>22.83800980126572</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>20.12589921382049</v>
+        <v>28.01511812594371</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.82980104276641</v>
+        <v>24.41724190061147</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>14.62002358929719</v>
+        <v>28.21539427471764</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>14.03465126340883</v>
+        <v>28.79489084668834</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>15.79046958612082</v>
+        <v>32.97130400117992</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>17.75262429316237</v>
+        <v>39.97010647860866</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>17.95404862892815</v>
+        <v>43.67003637282635</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.71847615262364</v>
+        <v>17.97424173237941</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>17.43378048148194</v>
+        <v>34.84602797422853</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>16.8579396211085</v>
+        <v>40.76819841181229</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.38873194438306</v>
+        <v>2.206245303741564</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.65845522132716</v>
+        <v>39.68649955755852</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.01188187933565</v>
+        <v>47.26586613107672</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>3.115109996666952</v>
+        <v>18.71652696368509</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>15.29088106009932</v>
+        <v>29.46099536718547</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.7736676369759</v>
+        <v>34.63839091765765</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>18.39308643390073</v>
+        <v>31.04072851799701</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>16.6308669905288</v>
+        <v>34.83926256697764</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>16.75762591201411</v>
+        <v>38.69891640978351</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>17.92931460826409</v>
+        <v>42.87674287211841</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>20.1446543825467</v>
+        <v>49.87575619728129</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>21.00762549594298</v>
+        <v>53.57577869524646</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>16.69731641726133</v>
+        <v>27.87913984263177</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>18.46240564786204</v>
+        <v>44.75138000556073</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>19.72192503223387</v>
+        <v>50.67387615158309</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>10.56373228343146</v>
+        <v>34.98541124750015</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>13.87042108668865</v>
+        <v>39.16204237612253</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.64054034759184</v>
+        <v>46.16093804779545</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.95686901320105</v>
+        <v>49.86087194214171</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>10.96069559295446</v>
+        <v>24.16468106427025</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>16.4352560564022</v>
+        <v>41.03681024445113</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>17.6334438817651</v>
+        <v>46.95895358107684</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>3.129494592677858</v>
+        <v>8.395912269479293</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>31.20236737108599</v>
+        <v>45.87664235290917</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>31.57945732450938</v>
+        <v>53.45600096806452</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>3.729798859775165</v>
+        <v>24.90699982543337</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>15.77318631254276</v>
+        <v>35.65175036036946</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>21.15869684224139</v>
+        <v>40.82911435839792</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>24.08442255304451</v>
+        <v>37.23146228326191</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>22.18943498792292</v>
+        <v>41.03021569105753</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>23.64973808667833</v>
+        <v>44.88983824956055</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>26.76244762383266</v>
+        <v>49.0678826914522</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>30.5233324339931</v>
+        <v>56.06698921092338</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>31.26055369210974</v>
+        <v>59.76701570497816</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>20.14789021500108</v>
+        <v>34.06998061712879</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>31.10420250669183</v>
+        <v>50.94256371669114</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>32.07618210223657</v>
+        <v>56.86503275613238</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>10.53192017965651</v>
+        <v>38.45175493225376</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>11.51125241580613</v>
+        <v>42.62838525914962</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>14.19418863218717</v>
+        <v>49.6272890196273</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>15.39553146851932</v>
+        <v>53.32722148609734</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>9.046431118507758</v>
+        <v>27.6309553365035</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>13.85405441603731</v>
+        <v>44.50316454261092</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>16.6226445847501</v>
+        <v>50.42529620860107</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>2.485257813043191</v>
+        <v>11.8619568651615</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.79202070882236</v>
+        <v>49.34272125240504</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>30.64556884729114</v>
+        <v>56.92206848460266</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>1.798955576041628</v>
+        <v>28.37338226986962</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>14.03088653916677</v>
+        <v>39.11821679702659</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>20.94277128895081</v>
+        <v>44.29556704654878</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.65681594538236</v>
+        <v>40.69788839918196</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.53013509419868</v>
+        <v>44.4967307277431</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.81461308238492</v>
+        <v>48.35634498317351</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>24.98090689826107</v>
+        <v>52.53438861844226</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.43604846487177</v>
+        <v>59.53350322575038</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.69675902379506</v>
+        <v>63.23352829046318</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>18.91491438798447</v>
+        <v>37.53641793039905</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.32740525925082</v>
+        <v>54.40908105464079</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.30338072035854</v>
+        <v>60.33153841981543</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>18.5352883670495</v>
+        <v>32.07483269110689</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>13.68971133011556</v>
+        <v>36.2512547885954</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>16.29225185034037</v>
+        <v>43.25010495693304</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>18.12459994186016</v>
+        <v>46.95006969401861</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.87218914570404</v>
+        <v>21.25402553288226</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>17.43474814299176</v>
+        <v>38.12601557735256</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>20.87108618980655</v>
+        <v>44.04822941955631</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>13.09943154989845</v>
+        <v>5.485757355246886</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>27.55226264697369</v>
+        <v>42.96625538193432</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.54475358944362</v>
+        <v>50.54567213311036</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>5.265457848089298</v>
+        <v>21.99654786624516</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>21.28941931939277</v>
+        <v>32.74119694675703</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>26.73635385918551</v>
+        <v>37.91862692906243</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>22.02327041212857</v>
+        <v>34.32082910767797</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>24.77892325986189</v>
+        <v>38.11951107502459</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>27.22739804365229</v>
+        <v>41.97919769289312</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>26.72100710466464</v>
+        <v>46.15703309857933</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.86809993900798</v>
+        <v>53.15609411539781</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>31.78409609232074</v>
+        <v>56.85615145337663</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.01976555233354</v>
+        <v>31.15926307178919</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.30676136975222</v>
+        <v>48.03170703936102</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>33.15879448746173</v>
+        <v>53.95424658545066</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-16.56785717521526</v>
+        <v>-16.56785717525959</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.9087910356648</v>
+        <v>20.90879103561808</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.48612698341791</v>
+        <v>28.48612698340302</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.05769863744588477</v>
+        <v>-0.05769863749170057</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.68329402971578</v>
+        <v>10.68329402972646</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.85920989526521</v>
+        <v>15.85920989523497</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>12.26267682926622</v>
+        <v>12.26267682925895</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.05849106328837</v>
+        <v>16.05849106328894</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>19.91696422075055</v>
+        <v>19.91696422071872</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>24.09264803623368</v>
+        <v>24.09264803620946</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.0898766350114</v>
+        <v>31.08987663498833</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.7890111939568</v>
+        <v>34.78901119394236</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.096501807035605</v>
+        <v>9.096501807047655</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.96519479924988</v>
+        <v>25.96519479925204</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.88600029715137</v>
+        <v>31.88600029714375</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-11.94014298012674</v>
+        <v>-11.94014298017438</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.54090332307616</v>
+        <v>25.54090332304012</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.1196846487292</v>
+        <v>33.11968464873205</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.568515530646021</v>
+        <v>4.568515530671601</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.31296725159363</v>
+        <v>15.31296725159056</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.48982332260645</v>
+        <v>20.48982332257064</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.89202992183736</v>
+        <v>16.89202992177665</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20.69037521121508</v>
+        <v>20.69037521122327</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-10.37974802513425</v>
+        <v>-10.3797480251596</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.0973759793565</v>
+        <v>27.09737597934706</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.67470396254787</v>
+        <v>34.6747039625415</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.131216277096012</v>
+        <v>6.131216277041329</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16.87249104792503</v>
+        <v>16.87249104788127</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.0483753562069</v>
+        <v>22.04837535619917</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>18.45185259115366</v>
+        <v>18.45185259113888</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22.24788616492416</v>
+        <v>22.24788616495247</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.10632803246385</v>
+        <v>26.10632803248511</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>30.28222982789593</v>
+        <v>30.28222982799631</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.27955161332299</v>
+        <v>37.27955161339621</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.97869016668567</v>
+        <v>40.97869016672966</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>15.28578457090093</v>
+        <v>15.28578457087978</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.15482047062703</v>
+        <v>32.15482047065557</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>38.07559885602215</v>
+        <v>38.07559885612243</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-5.750980770038115</v>
+        <v>-5.750980769985137</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.73054137191472</v>
+        <v>31.73054137197498</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>39.30931474305071</v>
+        <v>39.3093147431595</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.75848359916351</v>
+        <v>10.75848359915566</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>21.50321745788601</v>
+        <v>21.50321745789135</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.68004197839779</v>
+        <v>26.68004197840507</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>23.08225888502117</v>
+        <v>23.08225888494887</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26.88082354032694</v>
+        <v>26.88082354036059</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-6.914363746510237</v>
+        <v>-6.914363746514443</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.56279455961582</v>
+        <v>30.56279455966016</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38.14011116429542</v>
+        <v>38.14011116434294</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>9.596938348366432</v>
+        <v>9.596938348329598</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>20.33829711229673</v>
+        <v>20.33829711228865</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.51416767390269</v>
+        <v>25.5141676739119</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>21.91761832708725</v>
+        <v>21.91761832707554</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.71374082191157</v>
+        <v>25.71374082193169</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.57217438639195</v>
+        <v>29.57217438641582</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>33.74807540046145</v>
+        <v>33.74807540051431</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.74540527798494</v>
+        <v>40.74540527799427</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>44.44454240302518</v>
+        <v>44.44454240304599</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>18.75156153146217</v>
+        <v>18.75156153154402</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.62067745549511</v>
+        <v>35.62067745553115</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>41.54144416852471</v>
+        <v>41.54144416859235</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-2.285120382172597</v>
+        <v>-2.285120382201814</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.19643606250365</v>
+        <v>35.19643606248194</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>42.77519805467345</v>
+        <v>42.77519805468891</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>14.22468183085679</v>
+        <v>14.22468183081495</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.96949968350945</v>
+        <v>24.96949968347284</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>30.14631045815979</v>
+        <v>30.14631045817286</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.54850078420115</v>
+        <v>26.54850078415954</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.34715436290677</v>
+        <v>30.34715436290302</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-13.28928989336199</v>
+        <v>-13.28928989335937</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>24.18760206750543</v>
+        <v>24.18760206756012</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.76498818643101</v>
+        <v>31.76498818642305</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3.221377425070539</v>
+        <v>3.2213774250644</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>13.96255074926937</v>
+        <v>13.96255074921309</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>19.13850104034331</v>
+        <v>19.13850104027112</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>15.54183254884746</v>
+        <v>15.54183254882154</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>19.33779468578159</v>
+        <v>19.33779468586219</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>23.1963006111312</v>
+        <v>23.19630061112109</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27.37199339742225</v>
+        <v>27.37199339743954</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.3692696830763</v>
+        <v>34.36926968312814</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.06843907781415</v>
+        <v>38.06843907782665</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.37568017858147</v>
+        <v>12.37568017858488</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.2445769546736</v>
+        <v>29.24457695470839</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>35.16542584529354</v>
+        <v>35.1654258452625</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-8.661042185204071</v>
+        <v>-8.661042185217259</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.82024789042684</v>
+        <v>28.82024789037977</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.39907939708921</v>
+        <v>36.3990793971257</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7.848125160653165</v>
+        <v>7.848125160632133</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>18.59275755824198</v>
+        <v>18.59275755819071</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>23.76964806241089</v>
+        <v>23.76964806232301</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>20.17171922608763</v>
+        <v>20.17171922597815</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.97021243425244</v>
+        <v>23.97021243421709</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.5495734237176</v>
+        <v>24.5495734237035</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.72612945022062</v>
+        <v>28.7261294501673</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.72512996120922</v>
+        <v>35.7251299611559</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.42492140071595</v>
+        <v>39.42492140072345</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>13.72849984525412</v>
+        <v>13.72849984524298</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30.60088447409252</v>
+        <v>30.60088447407012</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.52280527488601</v>
+        <v>36.52280527483099</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-2.038651683142877</v>
+        <v>-2.038651683193695</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35.44253252442233</v>
+        <v>35.4425325243888</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.02165108300782</v>
+        <v>43.021651082996</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.47153173343615</v>
+        <v>14.47153173337498</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.21645625592286</v>
+        <v>25.21645625586147</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.39363399752669</v>
+        <v>30.39363399748087</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.79591901226176</v>
+        <v>26.79591901226108</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.59479391362644</v>
+        <v>30.5947939136111</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.45424033651584</v>
+        <v>34.45424033648253</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>38.632209660942</v>
+        <v>38.63220966092608</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>45.63142103050056</v>
+        <v>45.63142103046327</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.33130508601634</v>
+        <v>49.3313050860409</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>23.63403929460211</v>
+        <v>23.63403929463304</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>40.50687786456483</v>
+        <v>40.50687786455278</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.42912438370256</v>
+        <v>46.42912438372245</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.73999046879787</v>
+        <v>30.73999046880844</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>34.91676447292745</v>
+        <v>34.91676447298464</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>41.91585817978039</v>
+        <v>41.91585817990669</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>45.61565361815057</v>
+        <v>45.61565361823209</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.91883582155519</v>
+        <v>19.9188358215395</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.79156339541559</v>
+        <v>36.7915633954514</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>42.71345709183178</v>
+        <v>42.71345709184816</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4.150911934182698</v>
+        <v>4.150911934189974</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.63257197974524</v>
+        <v>41.6325719797732</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>49.21168257567346</v>
+        <v>49.21168257575714</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>20.66190124682741</v>
+        <v>20.66190124682013</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.40710790556242</v>
+        <v>31.4071079055697</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>36.58425409219744</v>
+        <v>36.58425409215299</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.98654942661646</v>
+        <v>32.98654942655564</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>36.78564369170958</v>
+        <v>36.78564369166502</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>40.64505882779581</v>
+        <v>40.6450588277841</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>44.82324613506516</v>
+        <v>44.82324613510461</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>51.82255070062517</v>
+        <v>51.82255070064689</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>55.5224387510704</v>
+        <v>55.5224387510663</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.82477672095017</v>
+        <v>29.82477672091253</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.69795823353085</v>
+        <v>46.69795823353904</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>52.62017764292231</v>
+        <v>52.62017764295983</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.20631298979576</v>
+        <v>34.2063129898069</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>38.38308619355307</v>
+        <v>38.38308619355739</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>45.38218798850032</v>
+        <v>45.38218798854761</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>49.08198199894086</v>
+        <v>49.08198199895826</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.38508893219925</v>
+        <v>23.38508893227565</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>40.25789653190161</v>
+        <v>40.25789653194026</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>46.17977855669692</v>
+        <v>46.17977855675524</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>7.61693537249668</v>
+        <v>7.616935372474966</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>45.09862972056969</v>
+        <v>45.09862972056878</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>52.67772893254123</v>
+        <v>52.67772893255464</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>24.12826253473342</v>
+        <v>24.12826253467476</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.87355318566919</v>
+        <v>34.87355318561497</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>40.0506856227136</v>
+        <v>40.05068562270257</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>36.45295438402609</v>
+        <v>36.4529543839805</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>40.25213756983628</v>
+        <v>40.25213756977216</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>44.11154440219279</v>
+        <v>44.1115444021688</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>48.28973090454842</v>
+        <v>48.289730904574</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>55.28904355738898</v>
+        <v>55.28904355741831</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>58.98893017825576</v>
+        <v>58.98893017827815</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.29119287770747</v>
+        <v>33.29119287767757</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>50.16445441473586</v>
+        <v>50.16445441471301</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>56.08666214861425</v>
+        <v>56.08666214864802</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.8294434218515</v>
+        <v>27.82944342182672</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.00600839705935</v>
+        <v>32.0060083969917</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>39.00505659862624</v>
+        <v>39.00505659868377</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>42.70488287995765</v>
+        <v>42.70488287996072</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>17.0082118031194</v>
+        <v>17.00821180309985</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33.88080023699574</v>
+        <v>33.88080023694378</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>39.80276443943778</v>
+        <v>39.80276443943062</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1.240788534317215</v>
+        <v>1.24078853428902</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>38.72221651679563</v>
+        <v>38.72221651675743</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.30138524988574</v>
+        <v>46.30138524991109</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>17.75148080222122</v>
+        <v>17.75148080220815</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.49658600333548</v>
+        <v>28.49658600336833</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>33.67379817388023</v>
+        <v>33.67379817388546</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.07594776565581</v>
+        <v>30.07594776562432</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>33.87497058681213</v>
+        <v>33.87497058681622</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>37.73444978233174</v>
+        <v>37.73444978229956</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>41.91242805583379</v>
+        <v>41.91242805580104</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>48.9116871168</v>
+        <v>48.91168711676475</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>52.61160601121075</v>
+        <v>52.61160601122621</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>26.91409069021851</v>
+        <v>26.91409069019282</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>43.7871330665278</v>
+        <v>43.78713306655099</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>49.70942298291213</v>
+        <v>49.70942298294135</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-18.2488494786373</v>
+        <v>-18.24884947866436</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.22589805179215</v>
+        <v>19.22589805182842</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.80321735078523</v>
+        <v>26.80321735084094</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1.739525764159641</v>
+        <v>-1.739525764172829</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>9.000713348443167</v>
+        <v>9.000713348468519</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>14.17666691670562</v>
+        <v>14.17666691674064</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.58028955724232</v>
+        <v>10.58028955722504</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>14.37565820824492</v>
+        <v>14.37565820821343</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>18.23420345109245</v>
+        <v>18.23420345108483</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.40969113801149</v>
+        <v>22.40969113794339</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.40653219345522</v>
+        <v>29.40653219342941</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33.10567120334183</v>
+        <v>33.10567120336979</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>7.414555026615897</v>
+        <v>7.414555026548481</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.28220273625713</v>
+        <v>24.28220273627748</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.20305106579387</v>
+        <v>30.20305106585981</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-13.62277081850035</v>
+        <v>-13.6227708184983</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.85637459423507</v>
+        <v>23.85637459420915</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.43513930080023</v>
+        <v>31.43513930079181</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2.885052809897427</v>
+        <v>2.885052809834445</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>13.6287508258196</v>
+        <v>13.62875082580323</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>18.80564464552894</v>
+        <v>18.80564464551734</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.20800687396142</v>
+        <v>15.20800687397483</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>19.00590646854475</v>
+        <v>19.00590646852531</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-12.06086499161991</v>
+        <v>-12.06086499161718</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.41435831159997</v>
+        <v>25.41435831166147</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.99166965040324</v>
+        <v>32.99166965045156</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4.449264462125864</v>
+        <v>4.449264462147351</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>15.18978566519972</v>
+        <v>15.18978566520336</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>20.36570768072424</v>
+        <v>20.36570768075584</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>16.76934062509137</v>
+        <v>16.76934062503646</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20.56492860426037</v>
+        <v>20.56492860427288</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>24.42344256152345</v>
+        <v>24.42344256151993</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.59914821911256</v>
+        <v>28.59914821910517</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.59608245689064</v>
+        <v>35.5960824569044</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>39.29522546264882</v>
+        <v>39.29522546265109</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>13.60371309169902</v>
+        <v>13.60371309168867</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.47170369293614</v>
+        <v>30.47170369286486</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.39252491454481</v>
+        <v>36.3925249145173</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-7.433733307985182</v>
+        <v>-7.433733307920949</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.04588792256576</v>
+        <v>30.0458879226126</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.62464467870306</v>
+        <v>37.62464467873683</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>9.074896153400271</v>
+        <v>9.07489615343631</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>19.81887629412999</v>
+        <v>19.81887629416148</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>24.99573856784836</v>
+        <v>24.99573856787849</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>21.39811110611974</v>
+        <v>21.398111106136</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.19623005547843</v>
+        <v>25.19623005549117</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-8.595556350661429</v>
+        <v>-8.59555635074965</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.87970125402493</v>
+        <v>28.87970125402789</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.45700121584018</v>
+        <v>36.45700121589043</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>7.914910886748128</v>
+        <v>7.91491088677007</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>18.65551608052003</v>
+        <v>18.65551608051161</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>23.83142435109418</v>
+        <v>23.83142435099334</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>20.23503071498139</v>
+        <v>20.23503071501026</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>24.03070761249846</v>
+        <v>24.0307076124473</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>27.88921326808115</v>
+        <v>27.88921326812128</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>32.06491814251403</v>
+        <v>32.06491814245958</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>39.06186047269243</v>
+        <v>39.06186047268856</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.76100205061327</v>
+        <v>42.76100205060941</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>17.06941440427617</v>
+        <v>17.06941440428242</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>33.93748502730709</v>
+        <v>33.93748502736337</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>39.85829457823301</v>
+        <v>39.85829457824484</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-3.967948566625484</v>
+        <v>-3.967948566631623</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>33.51170696681406</v>
+        <v>33.51170696681554</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>41.09045234574528</v>
+        <v>41.09045234575483</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>12.54101873049778</v>
+        <v>12.5410187304448</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.28508286258663</v>
+        <v>23.28508286256992</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.46193139219228</v>
+        <v>28.46193139218876</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>24.86427735097747</v>
+        <v>24.86427735093688</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.6624852206874</v>
+        <v>28.66248522062351</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-14.97034800170987</v>
+        <v>-14.97034800173306</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.50464326918442</v>
+        <v>22.50464326918044</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.08201274119032</v>
+        <v>30.08201274115758</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1.539484478442812</v>
+        <v>1.539484478489538</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>12.27990424060514</v>
+        <v>12.27990424058332</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>17.45589223691983</v>
+        <v>17.45589223685822</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>13.85937945597133</v>
+        <v>13.85937945591256</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>17.65489600324922</v>
+        <v>17.65489600322762</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>21.51347401595744</v>
+        <v>21.5134740159721</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.68897066952836</v>
+        <v>25.68897066946867</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>32.68585941012638</v>
+        <v>32.68585941009421</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.38503325626316</v>
+        <v>36.38503325624042</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.69366757477045</v>
+        <v>10.69366757470258</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>27.56151905998813</v>
+        <v>27.56151905995027</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.48241078420033</v>
+        <v>33.48241078419055</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-10.34373584573185</v>
+        <v>-10.34373584573628</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.13565333033436</v>
+        <v>27.13565333034289</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.71446821960573</v>
+        <v>34.71446821956958</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>6.164596602627665</v>
+        <v>6.164596602548993</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>16.90847528787701</v>
+        <v>16.90847528785893</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>22.08540354326344</v>
+        <v>22.08540354322319</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>18.4876303398551</v>
+        <v>18.48763033981588</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>22.2856778469624</v>
+        <v>22.28567784697308</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.86517681767274</v>
+        <v>22.86517681768877</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.04153661799209</v>
+        <v>27.04153661803324</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.04014951952847</v>
+        <v>34.04014951955507</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.73994543122323</v>
+        <v>37.73994543123528</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>12.04491718923252</v>
+        <v>12.04491718921262</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.91625636838345</v>
+        <v>28.91625636845519</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.83822004962092</v>
+        <v>34.83822004971573</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-3.721405775270075</v>
+        <v>-3.721405775288492</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.75787754927141</v>
+        <v>33.75787754929574</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>41.33697945769875</v>
+        <v>41.33697945773433</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>12.78794272708505</v>
+        <v>12.78794272708323</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.53211353003682</v>
+        <v>23.53211353005308</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.70932899375866</v>
+        <v>28.70932899379924</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.11176963556788</v>
+        <v>25.1117696355307</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.91019882551897</v>
+        <v>28.91019882550647</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>32.76971736582156</v>
+        <v>32.76971736585658</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>36.94749041864627</v>
+        <v>36.94749041866514</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>43.94631416672523</v>
+        <v>43.94631416669817</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>47.6462026761224</v>
+        <v>47.64620267612183</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.95033022389286</v>
+        <v>21.9503302238874</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>38.8221233335551</v>
+        <v>38.82212333362365</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>44.74441270549782</v>
+        <v>44.74441270553227</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.05546912511435</v>
+        <v>29.0554691251189</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.23204689293657</v>
+        <v>33.23204689287984</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>40.23075298601559</v>
+        <v>40.23075298602207</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>43.93055289776264</v>
+        <v>43.9305528977939</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>18.23512842996699</v>
+        <v>18.23512842990844</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>35.10681053790647</v>
+        <v>35.10681053792136</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>41.0287471195832</v>
+        <v>41.02874711950339</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>2.46803313088007</v>
+        <v>2.468033130893712</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>39.9477922726375</v>
+        <v>39.94779227263682</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.52688622275939</v>
+        <v>47.52688622276223</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>18.97818750453488</v>
+        <v>18.97818750452602</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.72264043044826</v>
+        <v>29.72264043042109</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.89982434356027</v>
+        <v>34.89982434358869</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>31.30227530787822</v>
+        <v>31.30227530782114</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>35.1009238502251</v>
+        <v>35.10092385021362</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>38.96041110831577</v>
+        <v>38.96041110833328</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>43.13840213418898</v>
+        <v>43.13840213418602</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>50.13731907398044</v>
+        <v>50.13731907401841</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>53.83721157975656</v>
+        <v>53.83721157976053</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.14094290357199</v>
+        <v>28.1409429034807</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>45.01307893977518</v>
+        <v>45.01307893983385</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>50.93534120684903</v>
+        <v>50.93534120683107</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>32.52171599005048</v>
+        <v>32.52171599007276</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36.69829295607569</v>
+        <v>36.69829295605363</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>43.69700713777642</v>
+        <v>43.69700713786078</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>47.39680562178823</v>
+        <v>47.39680562190317</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>21.70130588336592</v>
+        <v>21.7013058833068</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.57306801519933</v>
+        <v>38.57306801528868</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>44.49499292696412</v>
+        <v>44.49499292700834</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>5.933980914070201</v>
+        <v>5.933980914057013</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>43.41377435838199</v>
+        <v>43.41377435841427</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>50.99285692601568</v>
+        <v>50.9928569260134</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22.44447312825723</v>
+        <v>22.44447312825086</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.18901004409933</v>
+        <v>33.1890100440492</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.36618020936412</v>
+        <v>38.36618020931375</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>34.76860460150344</v>
+        <v>34.7686046015081</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>38.56734206182766</v>
+        <v>38.56734206186199</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>42.42682101742894</v>
+        <v>42.42682101742223</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>46.60481123701099</v>
+        <v>46.60481123698132</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>53.6037362642525</v>
+        <v>53.60373626428979</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>57.3036273407145</v>
+        <v>57.30362734073394</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>31.60728339430038</v>
+        <v>31.60728339420022</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>48.47949945279133</v>
+        <v>48.4794994528434</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>54.40175004598136</v>
+        <v>54.40175004599443</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.14498097334824</v>
+        <v>26.14498097337927</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.32134971709699</v>
+        <v>30.3213497170331</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>37.32001030790302</v>
+        <v>37.32001030788744</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>41.01984106182356</v>
+        <v>41.01984106178774</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.32456330607219</v>
+        <v>15.32456330602058</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.19610628170635</v>
+        <v>32.19610628166019</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>38.11811336702026</v>
+        <v>38.11811336698615</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-0.4420313934042106</v>
+        <v>-0.442031393396821</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>37.03749569673577</v>
+        <v>37.03749569668064</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.61664778161905</v>
+        <v>44.61664778164668</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.06782594559119</v>
+        <v>16.06782594555208</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>26.81217741958646</v>
+        <v>26.81217741960476</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>31.98942731472907</v>
+        <v>31.98942731474737</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.39173253728078</v>
+        <v>28.39173253727317</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>32.19030964075436</v>
+        <v>32.19030964073004</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>36.04986095596057</v>
+        <v>36.04986095599752</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>40.22764295249617</v>
+        <v>40.22764295257416</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>47.22651439077576</v>
+        <v>47.22651439079191</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>50.92643773958916</v>
+        <v>50.92643773966806</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.23031576523946</v>
+        <v>25.23031576519274</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>42.10231267303941</v>
+        <v>42.10231267304464</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>48.02464544445029</v>
+        <v>48.02464544446006</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-16.76203471481115</v>
+        <v>-16.76203471488357</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.71236641318505</v>
+        <v>20.71236641316038</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.28947801217525</v>
+        <v>28.28947801223402</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-0.2532259800184029</v>
+        <v>-0.2532259800021457</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>10.48699102594712</v>
+        <v>10.48699102596224</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>15.66277799597701</v>
+        <v>15.66277799594085</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>12.0665117222009</v>
+        <v>12.06651172211916</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>15.8619320667057</v>
+        <v>15.86193206667557</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.72033264572182</v>
+        <v>19.72033264566702</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23.89565388128214</v>
+        <v>23.89565388122132</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.89243323785449</v>
+        <v>30.89243323781288</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>34.59148564991669</v>
+        <v>34.59148564990612</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>8.900510815365163</v>
+        <v>8.900510815370506</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.768067843595</v>
+        <v>25.76806784356999</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.68872758978231</v>
+        <v>31.68872758976935</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-12.13547731010745</v>
+        <v>-12.13547731014065</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.34332167479117</v>
+        <v>25.34332167482141</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.9218786527528</v>
+        <v>32.92187865274984</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>4.371831432498805</v>
+        <v>4.371831432495394</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>15.11550730330468</v>
+        <v>15.11550730330445</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.29223451700254</v>
+        <v>20.29223451695047</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>16.69470784511911</v>
+        <v>16.69470784509307</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>20.49265910535614</v>
+        <v>20.49265910536546</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-10.57418557589218</v>
+        <v>-10.57418557591241</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.90069132165597</v>
+        <v>26.90069132163755</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.47779495833645</v>
+        <v>34.47779495831155</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5.935428882890772</v>
+        <v>5.935428882964214</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>16.6759279781949</v>
+        <v>16.67592797820695</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>21.85168339404815</v>
+        <v>21.85168339403394</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>18.25542742201518</v>
+        <v>18.25542742204531</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.05106709490762</v>
+        <v>22.05106709492376</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.90943638702485</v>
+        <v>25.90943638706089</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>30.08497558904177</v>
+        <v>30.08497558902983</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>37.08184812757627</v>
+        <v>37.08184812761674</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>40.78090453489726</v>
+        <v>40.78090453489828</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>15.08953351050381</v>
+        <v>15.08953351056634</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>31.95743342865527</v>
+        <v>31.95743342862378</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>37.87806606549991</v>
+        <v>37.87806606543533</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-5.946575155218131</v>
+        <v>-5.946575155219836</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.53269964449025</v>
+        <v>31.53269964449366</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>39.11124866994128</v>
+        <v>39.11124866997891</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>10.56153940530468</v>
+        <v>10.56153940538608</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.30549739960263</v>
+        <v>21.30549739964662</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.482193066232</v>
+        <v>26.48219306626497</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>22.88467670235711</v>
+        <v>22.88467670234858</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.68284731692351</v>
+        <v>26.6828473169226</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-7.108953770795058</v>
+        <v>-7.108953770781302</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.36595742746799</v>
+        <v>30.36595742750107</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>37.94304968711621</v>
+        <v>37.94304968711872</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>9.400998465749847</v>
+        <v>9.400998465804644</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>20.14158155096144</v>
+        <v>20.14158155096701</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.3173232215086</v>
+        <v>25.31732322150496</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.72104066878482</v>
+        <v>21.72104066883757</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.51676925875271</v>
+        <v>25.51676925880285</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.37513024887657</v>
+        <v>29.37513024893762</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>33.55066866815496</v>
+        <v>33.55066866809516</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>40.54754929895357</v>
+        <v>40.54754929893879</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>44.24660427812846</v>
+        <v>44.24660427811186</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.55515798085962</v>
+        <v>18.55515798085086</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>35.42313792010548</v>
+        <v>35.42313792009558</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>41.34375888585377</v>
+        <v>41.34375888584991</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-2.480867257962888</v>
+        <v>-2.480867257976531</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.99844184373983</v>
+        <v>34.99844184372357</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>42.57697949179935</v>
+        <v>42.57697949177047</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>14.02758513235032</v>
+        <v>14.02758513229132</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.77162711704333</v>
+        <v>24.77162711704583</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.94830903923166</v>
+        <v>29.94830903926667</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.35076609555999</v>
+        <v>26.35076609552815</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>30.14902562951958</v>
+        <v>30.14902562950844</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-13.48361049300646</v>
+        <v>-13.48361049300896</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>23.99103437203693</v>
+        <v>23.991034371996</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>31.56819614246619</v>
+        <v>31.56819614246471</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>3.025706996666639</v>
+        <v>3.025706996651518</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13.76610464997911</v>
+        <v>13.76610464999218</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.94192604586423</v>
+        <v>18.94192604589663</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.34552435362063</v>
+        <v>15.34552435358198</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>19.1410925927626</v>
+        <v>19.14109259272997</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>22.99952593992297</v>
+        <v>22.99952593990808</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.17485614236049</v>
+        <v>27.17485614233469</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.1716831833633</v>
+        <v>34.17168318332487</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>37.87077043047888</v>
+        <v>37.87077043042966</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.1795460968738</v>
+        <v>12.17954609683322</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.04730689765828</v>
+        <v>29.04730689769057</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.96801003687214</v>
+        <v>34.96801003683633</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-8.856519600094277</v>
+        <v>-8.856519600099279</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.62252314463391</v>
+        <v>28.62252314458696</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>36.2011303038643</v>
+        <v>36.20113030386999</v>
       </c>
     </row>
     <row r="449">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.39515448978504</v>
+        <v>18.39515448977287</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>23.57191613722197</v>
+        <v>23.57191613719378</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.97425403676599</v>
+        <v>19.97425403672905</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.77235320711513</v>
+        <v>23.77235320714173</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>24.35178478241691</v>
+        <v>24.35178478245295</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.52797812531098</v>
+        <v>28.52797812531427</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>35.52652930068443</v>
+        <v>35.52652930063623</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>39.22623860426249</v>
+        <v>39.22623860425078</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.53135175666527</v>
+        <v>13.53135175660411</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.40260022076067</v>
+        <v>30.40260022073941</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.32437530307929</v>
+        <v>36.32437530304928</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-2.234521284886416</v>
+        <v>-2.234521285010334</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>35.24441561931967</v>
+        <v>35.24441561931694</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>42.8233097970264</v>
+        <v>42.82330979699286</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>14.27431230462961</v>
+        <v>14.27431230466349</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.01846097042577</v>
+        <v>25.01846097043987</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.19550981952402</v>
+        <v>30.19550981950014</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.59806155082883</v>
+        <v>26.59806155078415</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.3965424140329</v>
+        <v>30.39654241397811</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.25591627415683</v>
+        <v>34.2559162741566</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>38.43352284433233</v>
+        <v>38.43352284423808</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.4322848736695</v>
+        <v>45.43228487361789</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>49.13208677449204</v>
+        <v>49.13208677447612</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>23.43635572331634</v>
+        <v>23.4363557232571</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.30805812680914</v>
+        <v>40.30805812680653</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>46.23015889243838</v>
+        <v>46.23015889243599</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.54194171333146</v>
+        <v>30.5419417133459</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>34.71835302018091</v>
+        <v>34.71835302020297</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>41.7169973867755</v>
+        <v>41.71699738675117</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>45.41671068984708</v>
+        <v>45.41671068982616</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.721427620857</v>
+        <v>19.72142762085518</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.59301901182862</v>
+        <v>36.59301901190842</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>42.51476699304423</v>
+        <v>42.51476699302775</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>3.954782262237853</v>
+        <v>3.954782262229894</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>41.43419498017708</v>
+        <v>41.43419498019834</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>49.01308119727427</v>
+        <v>49.01308119728689</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>20.46442170683103</v>
+        <v>20.4644217069662</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.2088524949077</v>
+        <v>31.20885249489997</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.38586979223139</v>
+        <v>36.38586979225038</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>32.78843184380712</v>
+        <v>32.78843184382053</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>36.5871320592418</v>
+        <v>36.58713205931808</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>40.44647463589085</v>
+        <v>40.44647463582207</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>44.62429917533454</v>
+        <v>44.62429917539684</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>51.62315439625722</v>
+        <v>51.62315439630065</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>55.32296029270599</v>
+        <v>55.32296029271735</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.62683302179691</v>
+        <v>29.62683302179566</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>46.49887835028998</v>
+        <v>46.49887835032807</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>52.42095200936619</v>
+        <v>52.42095200935778</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>34.00811172528931</v>
+        <v>34.00811172529136</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>38.18452223067315</v>
+        <v>38.18452223063143</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>45.18317468554396</v>
+        <v>45.18317468552623</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>48.88288656056174</v>
+        <v>48.88288656057459</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.18752822406092</v>
+        <v>23.18752822399646</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>40.0591996380512</v>
+        <v>40.05919963806507</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>45.9809359489182</v>
+        <v>45.98093594899005</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>7.420653201778276</v>
+        <v>7.420653201717226</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>44.9001002219275</v>
+        <v>44.90010022194853</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>52.47897505647227</v>
+        <v>52.47897505647613</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>23.93063048228582</v>
+        <v>23.93063048228047</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>34.67514525892413</v>
+        <v>34.67514525893573</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.85214880814151</v>
+        <v>39.85214880809956</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>36.25468428736274</v>
+        <v>36.2546842873475</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>40.05347341967233</v>
+        <v>40.05347341964425</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>43.91280769342681</v>
+        <v>43.91280769343557</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>48.09063142665882</v>
+        <v>48.09063142669724</v>
       </c>
     </row>
     <row r="515">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>58.78929920174589</v>
+        <v>58.78929920174544</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>33.09309666384233</v>
+        <v>33.09309666382232</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>49.96522201350392</v>
+        <v>49.9652220135071</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>55.88728399832898</v>
+        <v>55.88728399834319</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>27.63151165982405</v>
+        <v>27.63151165978779</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.80771394738023</v>
+        <v>31.80771394738455</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.80631281114931</v>
+        <v>38.80631281117932</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>42.50605695580013</v>
+        <v>42.50605695579331</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.81092060026701</v>
+        <v>16.81092060022642</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.68237285771299</v>
+        <v>33.68237285765728</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>39.60419134202054</v>
+        <v>39.60419134204987</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1.044775830585007</v>
+        <v>1.04477583051975</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.52395649680732</v>
+        <v>38.52395649683142</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.1029008492889</v>
+        <v>46.10290084927935</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>17.55411824575632</v>
+        <v>17.55411824574177</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.29844758031917</v>
+        <v>28.29844758031667</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>33.47553085884469</v>
+        <v>33.47553085878114</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.87794717375895</v>
+        <v>29.87794717371223</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>33.67657594832274</v>
+        <v>33.67657594832183</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>37.53598258170682</v>
+        <v>37.53598258171785</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>41.71359809675987</v>
+        <v>41.71359809676282</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>48.71240781537385</v>
+        <v>48.71240781540227</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>52.41224455446438</v>
+        <v>52.41224455447279</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.71626398684581</v>
+        <v>26.71626398677135</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>43.58817018541792</v>
+        <v>43.58817018537563</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>49.51031434854626</v>
+        <v>49.51031434853535</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-13.27984922385265</v>
+        <v>-13.27984922389347</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.19722062831526</v>
+        <v>24.19722062831083</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>31.77485128117091</v>
+        <v>31.7748512811343</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.230578200362896</v>
+        <v>3.230578200398707</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.97165216596344</v>
+        <v>13.97165216592525</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.14778621429836</v>
+        <v>19.14778621431496</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>15.55121937724395</v>
+        <v>15.55121937723724</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.34701186583372</v>
+        <v>19.34701186588329</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.2056651890462</v>
+        <v>23.20566518901778</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>27.38135241395905</v>
+        <v>27.38135241389299</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>34.37866401876572</v>
+        <v>34.37866401877697</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>38.07795365893519</v>
+        <v>38.0779536589253</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>12.38508235275405</v>
+        <v>12.38508235269573</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.25392126285389</v>
+        <v>29.25392126280455</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.17497766679644</v>
+        <v>35.1749776668094</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-8.651635917952792</v>
+        <v>-8.651635917963251</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.82983207224508</v>
+        <v>28.82983207223769</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>36.40890818385917</v>
+        <v>36.4089081838968</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7.857291484987439</v>
+        <v>7.857291485047238</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>18.60182454414</v>
+        <v>18.60182454413738</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.7788988741659</v>
+        <v>23.77889887416294</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>20.18107162335575</v>
+        <v>20.18107162334301</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.97939519803758</v>
+        <v>23.9793951980353</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-7.091539273665564</v>
+        <v>-7.091539273640553</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.3860063802761</v>
+        <v>30.38600638028019</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>37.9636290698483</v>
+        <v>37.96362906986251</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.419693932596868</v>
+        <v>9.41969393258891</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>20.16105000738166</v>
+        <v>20.16105000735619</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.33715249851756</v>
+        <v>25.33715249847823</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.7405959646192</v>
+        <v>21.74059596457066</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.53660779702276</v>
+        <v>25.53660779701299</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.39522983023668</v>
+        <v>29.39522983025885</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.57113503802638</v>
+        <v>33.57113503808755</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>40.5685398316072</v>
+        <v>40.56853983166427</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>44.26783346678535</v>
+        <v>44.26783346677011</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.57456594365025</v>
+        <v>18.57456594359375</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>35.44374776723218</v>
+        <v>35.44374776725572</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>41.36477705913141</v>
+        <v>41.36477705916415</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-2.462272881191854</v>
+        <v>-2.462272881168889</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.01967095564343</v>
+        <v>35.01967095567265</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.59873911414836</v>
+        <v>42.59873911417758</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>14.04746039737567</v>
+        <v>14.04746039738351</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.7922755997187</v>
+        <v>24.79227559971927</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.96931837950187</v>
+        <v>29.96931837950551</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>26.37150143818296</v>
+        <v>26.37150143817693</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>30.17004438299675</v>
+        <v>30.1700443830404</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-3.626066658835231</v>
+        <v>-3.626066658842394</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>33.85151329802845</v>
+        <v>33.85151329805073</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>41.42912460950508</v>
+        <v>41.42912460950622</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>12.88550434749849</v>
+        <v>12.88550434750315</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.62694441743376</v>
+        <v>23.62694441740465</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.80303316199847</v>
+        <v>28.80303316197834</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.20645004651264</v>
+        <v>25.2064500465181</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.00255080183801</v>
+        <v>29.00255080184392</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.86116453229879</v>
+        <v>32.86116453231391</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>37.03706895742589</v>
+        <v>37.03706895737757</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>44.03448184322262</v>
+        <v>44.03448184319841</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>47.73377405006947</v>
+        <v>47.73377405004503</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.04043124909439</v>
+        <v>22.04043124905483</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>38.90969309903817</v>
+        <v>38.90969309903794</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>44.83071071873262</v>
+        <v>44.83071071869851</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>1.003675850679809</v>
+        <v>1.003675850727898</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>38.48565399186161</v>
+        <v>38.4856539918557</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>46.0647107717122</v>
+        <v>46.0647107717496</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>17.51374698093825</v>
+        <v>17.51374698098168</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.25864617949018</v>
+        <v>28.25864617947188</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.43567521357174</v>
+        <v>33.43567521356788</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.83783169151154</v>
+        <v>29.83783169151222</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.63646356160284</v>
+        <v>33.63646356162535</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-10.00116579618073</v>
+        <v>-10.0011657962162</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.47614781056556</v>
+        <v>27.47614781052827</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>35.05382863723268</v>
+        <v>35.05382863720267</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>6.509770419989461</v>
+        <v>6.509770419970703</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>17.25102504617045</v>
+        <v>17.25102504614282</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.42719352208216</v>
+        <v>22.42719352207909</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>18.83049125785287</v>
+        <v>18.83049125780034</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.62643165173578</v>
+        <v>22.6264316517492</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.4851177446523</v>
+        <v>26.48511774465389</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>30.66081393755989</v>
+        <v>30.66081393754113</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>37.65817323024434</v>
+        <v>37.65817323019091</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>41.35749770742409</v>
+        <v>41.35749770739737</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>15.66437688432954</v>
+        <v>15.66437688425485</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.53341958182402</v>
+        <v>32.53341958178207</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>38.45451938091541</v>
+        <v>38.45451938088654</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-5.372418966233074</v>
+        <v>-5.372418966258994</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>32.10929280096188</v>
+        <v>32.10929280094653</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>39.68841909638836</v>
+        <v>39.68841909638438</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>11.13701728245762</v>
+        <v>11.13701728252697</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.88173102184014</v>
+        <v>21.88173102186878</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.0588397873003</v>
+        <v>27.05883978732099</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.46087709895202</v>
+        <v>23.46087709891678</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.25934859534372</v>
+        <v>27.25934859529324</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>27.83877364402614</v>
+        <v>27.83877364402262</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>32.01533304392528</v>
+        <v>32.01533304389845</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>39.0144165882446</v>
+        <v>39.01441658827734</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>42.71436315164117</v>
+        <v>42.71436315163241</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>17.01757957736735</v>
+        <v>17.01757957733427</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>33.89011016622435</v>
+        <v>33.89011016621036</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>39.81228195601322</v>
+        <v>39.81228195600674</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1.249384766001679</v>
+        <v>1.249384765964503</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>38.73099065650415</v>
+        <v>38.7309906564597</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>46.31040400535419</v>
+        <v>46.31040400531792</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>17.75983710299924</v>
+        <v>17.75983710299469</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.50484296243728</v>
+        <v>28.50484296240408</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>33.68223896640124</v>
+        <v>33.68223896639363</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>30.08449010515191</v>
+        <v>30.08449010516567</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.88334329482568</v>
+        <v>33.88334329479942</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.74296995365232</v>
+        <v>37.742969953643</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>41.92094268875069</v>
+        <v>41.92094268876603</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>48.92023709254697</v>
+        <v>48.92023709257221</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>52.62027626801994</v>
+        <v>52.62027626801823</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>26.92264845566846</v>
+        <v>26.92264845562913</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>43.79563298509053</v>
+        <v>43.79563298513249</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>49.71813049667507</v>
+        <v>49.71813049670111</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.0293915453057</v>
+        <v>34.0293915453688</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.2061689254363</v>
+        <v>38.20616892542436</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.20534566753388</v>
+        <v>45.20534566757662</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>48.90529623017055</v>
+        <v>48.90529623024047</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>23.20811640698416</v>
+        <v>23.20811640697108</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>40.08098994660331</v>
+        <v>40.08098994657841</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>46.00313463257309</v>
+        <v>46.00313463258435</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>7.439149214617299</v>
+        <v>7.439149214590582</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.92123095122683</v>
+        <v>44.92123095124161</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>52.50063633880227</v>
+        <v>52.50063633878567</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>23.95040746551596</v>
+        <v>23.95040746556678</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.69569546632458</v>
+        <v>34.69569546634186</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.87305991525504</v>
+        <v>39.87305991532109</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.27532137585222</v>
+        <v>36.27532137587927</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>40.07439393313659</v>
+        <v>40.07439393316319</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>43.93398930521145</v>
+        <v>43.93398930523146</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>48.11218002668788</v>
+        <v>48.11218002670084</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>55.11156762805517</v>
+        <v>55.11156762811747</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>58.81161079897679</v>
+        <v>58.8116107990309</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.11358673990803</v>
+        <v>33.11358673986972</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>49.98691421817232</v>
+        <v>49.9869142182004</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>55.90938462028286</v>
+        <v>55.90938462030867</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>37.49580242229165</v>
+        <v>37.49580242230893</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>41.67257900125178</v>
+        <v>41.67257900117583</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>48.67176383191502</v>
+        <v>48.67176383186568</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>52.37171296641797</v>
+        <v>52.3717129664132</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>26.67445787076046</v>
+        <v>26.67445787076967</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>43.54741143847563</v>
+        <v>43.54741143855101</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>49.46954445304429</v>
+        <v>49.46954445307874</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>10.9052609992987</v>
+        <v>10.90526099927892</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>48.38737704031045</v>
+        <v>48.38737704029374</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>55.96677104407654</v>
+        <v>55.96677104407017</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>27.41685710764936</v>
+        <v>27.41685710770393</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>38.16222910286028</v>
+        <v>38.16222910283209</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.33957980247594</v>
+        <v>43.33957980255063</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>39.74181468972135</v>
+        <v>39.74181468974682</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>43.54097616944368</v>
+        <v>43.54097616946335</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>47.40056323791116</v>
+        <v>47.40056323795413</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>51.57875315323467</v>
+        <v>51.57875315323604</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>58.57814884245481</v>
+        <v>58.57814884243037</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>62.2781905836146</v>
+        <v>62.27819058356867</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.58009125233598</v>
+        <v>36.58009125232813</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>53.45349875685092</v>
+        <v>53.45349875689128</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>59.37595748396181</v>
+        <v>59.37595748399399</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.11875981857206</v>
+        <v>31.11875981855784</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.2953281640735</v>
+        <v>35.295328164022</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>42.29445940036014</v>
+        <v>42.29445940035286</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>45.99444080651033</v>
+        <v>45.99444080652852</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>20.29740770646451</v>
+        <v>20.29740770638731</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.17014210362861</v>
+        <v>37.17014210359063</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>43.09235729760432</v>
+        <v>43.09235729760773</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>4.528941142265506</v>
+        <v>4.528941142243905</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.01079081252458</v>
+        <v>42.01079081250866</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>49.59025433866786</v>
+        <v>49.59025433868185</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>21.03990234183474</v>
+        <v>21.03990234181712</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>31.78508888295611</v>
+        <v>31.78508888295725</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.96251931803106</v>
+        <v>36.96251931806437</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>33.36463503171346</v>
+        <v>33.36463503170084</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.16363614368338</v>
+        <v>37.16363614368247</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>41.02329557712044</v>
+        <v>41.02329557709542</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>45.20127725847856</v>
+        <v>45.20127725846764</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>52.20061935484061</v>
+        <v>52.20061935480241</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>55.90069337049924</v>
+        <v>55.90069337045661</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>30.20281602402421</v>
+        <v>30.20281602396544</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>47.0760043636332</v>
+        <v>47.07600436356158</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>52.99854527480367</v>
+        <v>52.99854527477162</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-12.32166784246177</v>
+        <v>-12.32166784242755</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.15405055262753</v>
+        <v>25.15405055265323</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>32.73163444982133</v>
+        <v>32.7316344498377</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>4.188588962533384</v>
+        <v>4.188588962548049</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>14.92912561652308</v>
+        <v>14.92912561654968</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>20.10525922198262</v>
+        <v>20.10525922194567</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.50877886444577</v>
+        <v>16.50877886441723</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>20.3042523288863</v>
+        <v>20.30425232883935</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.16293283694203</v>
+        <v>24.16293283692736</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.33847386295944</v>
+        <v>28.33847386291886</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.33550445623318</v>
+        <v>35.33550445620726</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>39.03477742716613</v>
+        <v>39.0347774271077</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>13.34289494518911</v>
+        <v>13.34289494515194</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>30.21098964726324</v>
+        <v>30.21098964728098</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.13204469574639</v>
+        <v>36.13204469576799</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-7.694604725487427</v>
+        <v>-7.69460472547242</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.78551163267324</v>
+        <v>29.7855116326762</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.36454098570043</v>
+        <v>37.36454098568895</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>8.814152029646419</v>
+        <v>8.814152029659265</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.5581476539633</v>
+        <v>19.55814765397762</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.73522154258414</v>
+        <v>24.73522154259323</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>21.1374807514782</v>
+        <v>21.13748075140715</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.93548520802316</v>
+        <v>24.93548520802862</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-6.133455326928317</v>
+        <v>-6.133455326955488</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.34273885311817</v>
+        <v>31.34273885315251</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.92031479006816</v>
+        <v>38.92031479008033</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>10.37760724227466</v>
+        <v>10.37760724233014</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>21.11842599497929</v>
+        <v>21.118425994991</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>26.29452804580607</v>
+        <v>26.29452804584507</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>22.69805799355576</v>
+        <v>22.69805799362443</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>26.49375079305916</v>
+        <v>26.49375079313056</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.35240001367951</v>
+        <v>30.35240001375045</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>34.5281590161931</v>
+        <v>34.52815901618958</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>41.52528279470532</v>
+        <v>41.52528279470975</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.22455976140445</v>
+        <v>45.22455976141491</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.53228107403019</v>
+        <v>19.53228107402235</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>36.40071867719932</v>
+        <v>36.40071867720148</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.32174661637013</v>
+        <v>42.32174661641663</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-1.505339159623151</v>
+        <v>-1.505339159595867</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.97525302870615</v>
+        <v>35.97525302872729</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>43.55427443137789</v>
+        <v>43.55427443137937</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>15.00422345311283</v>
+        <v>15.00422345316353</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.74850121038234</v>
+        <v>25.74850121038848</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>30.92554355135864</v>
+        <v>30.92554355135261</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>27.3278130720261</v>
+        <v>27.32781307203497</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>31.12603689021777</v>
+        <v>31.12603689025938</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-2.668049884642375</v>
+        <v>-2.668049884645217</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.80817859815947</v>
+        <v>34.80817859818426</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>42.38574315774228</v>
+        <v>42.38574315783812</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>13.84335047570145</v>
+        <v>13.84335047572135</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.58425322192276</v>
+        <v>24.58425322193663</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.76034152693869</v>
+        <v>29.76034152696836</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>26.16384489452006</v>
+        <v>26.16384489450881</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.95962661483138</v>
+        <v>29.95962661483672</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>33.81826753326133</v>
+        <v>33.81826753329771</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>37.99402575251229</v>
+        <v>37.99402575247522</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>44.99115762378578</v>
+        <v>44.99115762378226</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>48.69043316242919</v>
+        <v>48.69043316237519</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>22.9980791975418</v>
+        <v>22.99807919758443</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.86659682529061</v>
+        <v>39.8665968253553</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>45.78761309306826</v>
+        <v>45.78761309307031</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>1.960542390116682</v>
+        <v>1.960542390113954</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>39.44116888276476</v>
+        <v>39.44116888270973</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>47.02017890746031</v>
+        <v>47.02017890746849</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>18.47044284637392</v>
+        <v>18.4704428463629</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.21480459761601</v>
+        <v>29.2148045976151</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.39183319360647</v>
+        <v>34.39183319362046</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>30.79407613485357</v>
+        <v>30.79407613489233</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>34.59238887595397</v>
+        <v>34.59238887593851</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-9.043028711589802</v>
+        <v>-9.0430287116172</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.43293343128031</v>
+        <v>28.43293343124962</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>36.0105675023829</v>
+        <v>36.01056750240348</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>7.467736873496772</v>
+        <v>7.467736873504162</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>18.20845418290507</v>
+        <v>18.20845418289825</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>23.38462221665479</v>
+        <v>23.38462221668719</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>19.78800643544586</v>
+        <v>19.7880064354354</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>23.58362780125143</v>
+        <v>23.58362780122631</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>27.44234107929348</v>
+        <v>27.44234107937033</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.61789107069323</v>
+        <v>31.61789107066913</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.61496935105826</v>
+        <v>38.6149693510536</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>42.31427715883653</v>
+        <v>42.31427715876377</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.62214516530359</v>
+        <v>16.62214516530814</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.49044364914043</v>
+        <v>33.49044364904493</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>39.41154209295398</v>
+        <v>39.41154209298354</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-4.415432087536335</v>
+        <v>-4.41543208764843</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>33.06492804099064</v>
+        <v>33.0649280409795</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>40.64400757787284</v>
+        <v>40.64400757787375</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>12.09383350191142</v>
+        <v>12.0938335018689</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.83800980126572</v>
+        <v>22.83800980124458</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.01511812594371</v>
+        <v>28.01511812596838</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.41724190061147</v>
+        <v>24.41724190058623</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.21539427471764</v>
+        <v>28.21539427474583</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.79489084668834</v>
+        <v>28.79489084669914</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>32.97130400117992</v>
+        <v>32.97130400118435</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>39.97010647860866</v>
+        <v>39.97010647862389</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>43.67003637282635</v>
+        <v>43.67003637286011</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>17.97424173237941</v>
+        <v>17.97424173232029</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>34.84602797422853</v>
+        <v>34.84602797422717</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>40.76819841181229</v>
+        <v>40.76819841179979</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>2.206245303741564</v>
+        <v>2.206245303727126</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>39.68649955755852</v>
+        <v>39.68649955756557</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>47.26586613107672</v>
+        <v>47.26586613111094</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>18.71652696368509</v>
+        <v>18.71652696370635</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.46099536718547</v>
+        <v>29.46099536716296</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>34.63839091765765</v>
+        <v>34.63839091764707</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.04072851799701</v>
+        <v>31.04072851802281</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>34.83926256697764</v>
+        <v>34.83926256693887</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>38.69891640978351</v>
+        <v>38.69891640984672</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>42.87674287211841</v>
+        <v>42.87674287211773</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.87575619728129</v>
+        <v>49.87575619724161</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>53.57577869524646</v>
+        <v>53.57577869521383</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>27.87913984263177</v>
+        <v>27.87913984257504</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.75138000556073</v>
+        <v>44.75138000551628</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>50.67387615158309</v>
+        <v>50.67387615154011</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>34.98541124750015</v>
+        <v>34.98541124751846</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>39.16204237612253</v>
+        <v>39.16204237611889</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>46.16093804779545</v>
+        <v>46.16093804782467</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>49.86087194214171</v>
+        <v>49.86087194210783</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.16468106427025</v>
+        <v>24.16468106423728</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>41.03681024445113</v>
+        <v>41.03681024441509</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>46.95895358107684</v>
+        <v>46.95895358107786</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>8.395912269479293</v>
+        <v>8.395912269500439</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>45.87664235290917</v>
+        <v>45.87664235291804</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>53.45600096806452</v>
+        <v>53.45600096807838</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>24.90699982543337</v>
+        <v>24.90699982543212</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.65175036036946</v>
+        <v>35.65175036037299</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>40.82911435839792</v>
+        <v>40.82911435840803</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>37.23146228326191</v>
+        <v>37.23146228320847</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>41.03021569105753</v>
+        <v>41.03021569107857</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>44.88983824956055</v>
+        <v>44.88983824953498</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>49.0678826914522</v>
+        <v>49.06788269143071</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>56.06698921092338</v>
+        <v>56.06698921094487</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>59.76701570497816</v>
+        <v>59.76701570502387</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>34.06998061712879</v>
+        <v>34.06998061704398</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.94256371669114</v>
+        <v>50.94256371670001</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>56.86503275613238</v>
+        <v>56.86503275614159</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>38.45175493225376</v>
+        <v>38.45175493230049</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>42.62838525914962</v>
+        <v>42.62838525908721</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>49.6272890196273</v>
+        <v>49.62728901958137</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>53.32722148609734</v>
+        <v>53.32722148605426</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.6309553365035</v>
+        <v>27.63095533647622</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>44.50316454261092</v>
+        <v>44.50316454255749</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>50.42529620860107</v>
+        <v>50.42529620853263</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>11.8619568651615</v>
+        <v>11.86195686515763</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>49.34272125240504</v>
+        <v>49.34272125249781</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>56.92206848460266</v>
+        <v>56.92206848459732</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.37338226986962</v>
+        <v>28.37338226993829</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>39.11821679702659</v>
+        <v>39.11821679703716</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>44.29556704654878</v>
+        <v>44.29556704657413</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>40.69788839918196</v>
+        <v>40.6978883992213</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>44.4967307277431</v>
+        <v>44.49673072773901</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>48.35634498317351</v>
+        <v>48.35634498323525</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>52.53438861844226</v>
+        <v>52.53438861843647</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>59.53350322575038</v>
+        <v>59.53350322576482</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>63.23352829046318</v>
+        <v>63.23352829045693</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>37.53641793039905</v>
+        <v>37.53641793041611</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>54.40908105464079</v>
+        <v>54.40908105462601</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>60.33153841981543</v>
+        <v>60.33153841978314</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>32.07483269110689</v>
+        <v>32.07483269111997</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.2512547885954</v>
+        <v>36.25125478854027</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>43.25010495693304</v>
+        <v>43.25010495690303</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>46.95006969401861</v>
+        <v>46.95006969400769</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.25402553288226</v>
+        <v>21.25402553291489</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>38.12601557735256</v>
+        <v>38.12601557733574</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>44.04822941955631</v>
+        <v>44.04822941953562</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>5.485757355246886</v>
+        <v>5.485757355191861</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>42.96625538193432</v>
+        <v>42.9662553819724</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>50.54567213311036</v>
+        <v>50.54567213313321</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>21.99654786624516</v>
+        <v>21.99654786622629</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>32.74119694675703</v>
+        <v>32.74119694671587</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>37.91862692906243</v>
+        <v>37.91862692901934</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>34.32082910767797</v>
+        <v>34.32082910760862</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>38.11951107502459</v>
+        <v>38.1195110750031</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>41.97919769289312</v>
+        <v>41.97919769289005</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>46.15703309857933</v>
+        <v>46.1570330985292</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.15609411539781</v>
+        <v>53.15609411539769</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>56.85615145337663</v>
+        <v>56.85615145336435</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>31.15926307178919</v>
+        <v>31.15926307175236</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>48.03170703936102</v>
+        <v>48.03170703931919</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>53.95424658545066</v>
+        <v>53.95424658536892</v>
       </c>
     </row>
   </sheetData>
